--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
     <sheet name="fmax_IPS" sheetId="2" r:id="rId2"/>
     <sheet name="MPKI" sheetId="3" r:id="rId3"/>
+    <sheet name="min" sheetId="4" r:id="rId4"/>
+    <sheet name="vs" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
   <si>
     <t>1KB</t>
   </si>
@@ -143,16 +152,53 @@
   <si>
     <t>dums</t>
   </si>
+  <si>
+    <t>Target MPKI</t>
+  </si>
+  <si>
+    <t>Direction MPKI</t>
+  </si>
+  <si>
+    <t>bzip2</t>
+  </si>
+  <si>
+    <t>gobmk</t>
+  </si>
+  <si>
+    <t>hmmer</t>
+  </si>
+  <si>
+    <t>sjeng</t>
+  </si>
+  <si>
+    <t>libquantum</t>
+  </si>
+  <si>
+    <t>h264</t>
+  </si>
+  <si>
+    <t>astar</t>
+  </si>
+  <si>
+    <t>xalanc</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>gRselect 1KB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,11 +235,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +258,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -244,6 +301,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$16:$G$16</c:f>
@@ -298,16 +356,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89112960"/>
-        <c:axId val="89114496"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="138942336"/>
+        <c:axId val="138943872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89112960"/>
+        <c:axId val="138942336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -322,17 +391,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89114496"/>
+        <c:crossAx val="138943872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89114496"/>
+        <c:axId val="138943872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -354,8 +425,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -370,7 +445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89112960"/>
+        <c:crossAx val="138942336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -378,6 +453,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -394,13 +470,35 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15423591794276395"/>
+          <c:y val="7.0142607668246898E-2"/>
+          <c:w val="0.82472152502957174"/>
+          <c:h val="0.65006646027883586"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -414,6 +512,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$77:$A$81</c:f>
@@ -462,16 +561,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92685440"/>
-        <c:axId val="92686976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="139339264"/>
+        <c:axId val="139340800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92685440"/>
+        <c:axId val="139339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -486,18 +596,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92686976"/>
+        <c:crossAx val="139340800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92686976"/>
+        <c:axId val="139340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -520,8 +632,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -536,7 +651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92685440"/>
+        <c:crossAx val="139339264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -544,6 +659,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -555,13 +671,25 @@
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -577,6 +705,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -601,6 +730,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -684,6 +814,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -767,6 +898,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -850,6 +982,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -930,6 +1063,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1013,6 +1147,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$3:$A$10</c:f>
@@ -1079,17 +1214,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="92787456"/>
-        <c:axId val="92788992"/>
+        <c:axId val="140105216"/>
+        <c:axId val="140106752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92787456"/>
+        <c:axId val="140105216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1104,17 +1249,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92788992"/>
+        <c:crossAx val="140106752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92788992"/>
+        <c:axId val="140106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1140,8 +1287,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1156,7 +1306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92787456"/>
+        <c:crossAx val="140105216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,6 +1340,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1217,8 +1368,19 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1234,6 +1396,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1258,6 +1421,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1314,6 +1478,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1356,13 +1521,22 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="94956544"/>
-        <c:axId val="94966528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140170368"/>
+        <c:axId val="140171904"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1377,6 +1551,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1448,6 +1623,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1490,16 +1666,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="94978816"/>
-        <c:axId val="94968448"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140524160"/>
+        <c:axId val="140522240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94956544"/>
+        <c:axId val="140170368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1514,17 +1701,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94966528"/>
+        <c:crossAx val="140171904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94966528"/>
+        <c:axId val="140171904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1554,8 +1743,11 @@
               <c:y val="0.31182925795570021"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1570,17 +1762,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94956544"/>
+        <c:crossAx val="140170368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94968448"/>
+        <c:axId val="140522240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
           <c:min val="0.32000000000000012"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1602,8 +1795,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1618,24 +1814,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94978816"/>
+        <c:crossAx val="140524160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="94978816"/>
+        <c:axId val="140524160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="94968448"/>
+        <c:crossAx val="140522240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
     </c:plotArea>
     <c:legend>
@@ -1675,6 +1874,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1692,7 +1892,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1710,6 +1920,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1734,6 +1945,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$A$20:$A$23</c:f>
@@ -1776,16 +1988,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="95024256"/>
-        <c:axId val="95025792"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140563584"/>
+        <c:axId val="140565120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95024256"/>
+        <c:axId val="140563584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1800,17 +2023,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95025792"/>
+        <c:crossAx val="140565120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95025792"/>
+        <c:axId val="140565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1843,8 +2068,11 @@
               <c:y val="0.36580052493438336"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1859,13 +2087,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95024256"/>
+        <c:crossAx val="140563584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1883,7 +2112,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1901,6 +2140,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1925,6 +2165,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>MPKI!$B$32:$I$32</c:f>
@@ -1992,15 +2233,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="96248576"/>
-        <c:axId val="96149888"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140664192"/>
+        <c:axId val="140670464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96248576"/>
+        <c:axId val="140664192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2025,8 +2275,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2041,17 +2294,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96149888"/>
+        <c:crossAx val="140670464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96149888"/>
+        <c:axId val="140670464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2077,8 +2332,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2093,13 +2351,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96248576"/>
+        <c:crossAx val="140664192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2117,7 +2376,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2135,6 +2404,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2159,6 +2429,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>MPKI!$B$36:$G$36</c:f>
@@ -2213,16 +2484,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="96166272"/>
-        <c:axId val="96167808"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140691712"/>
+        <c:axId val="140705792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96166272"/>
+        <c:axId val="140691712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2237,17 +2519,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96167808"/>
+        <c:crossAx val="140705792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96167808"/>
+        <c:axId val="140705792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2270,8 +2554,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2286,13 +2573,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96166272"/>
+        <c:crossAx val="140691712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2308,26 +2596,249 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14320626715553689"/>
+          <c:y val="4.7415605731785875E-2"/>
+          <c:w val="0.83440187533810184"/>
+          <c:h val="0.80109669738514355"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BTB-256 filtering</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BTB-1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTB-PAC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTB-FAC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FAC+RAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.30320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93559999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="66534784"/>
+        <c:axId val="68666496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66534784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68666496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68666496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66534784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="-3"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12977476625580361"/>
+          <c:y val="3.9070471502605592E-2"/>
+          <c:w val="0.84999535161620399"/>
+          <c:h val="0.6871427446997832"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IPC!$A$22</c:f>
+              <c:f>[2]Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IPC</c:v>
+                  <c:v>Base</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2342,6 +2853,1163 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>bimodal-256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bimodal-768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bimodal-4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gshare-256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gshare-768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gshare-4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>gselect-768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>gselect-4096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>gRselect-768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>gRselect-4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="71260416"/>
+        <c:axId val="65622016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71260416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65622016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65622016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71260416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15696662917135359"/>
+          <c:y val="3.1363920414923627E-2"/>
+          <c:w val="0.67571192489827658"/>
+          <c:h val="0.62505249344843239"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fmax avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BTB+PAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTB+FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTB+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FAC+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FAC+RAS+gshare</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FAC+RAS+gselect</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FAC+RAS+gRselect</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FAC+RAS+gRselect+PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>353.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>261.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>243.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dumP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BTB+PAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTB+FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTB+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FAC+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FAC+RAS+gshare</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FAC+RAS+gselect</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FAC+RAS+gRselect</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FAC+RAS+gRselect+PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="89036288"/>
+        <c:axId val="89037824"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dumS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BTB+PAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTB+FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTB+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FAC+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FAC+RAS+gshare</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FAC+RAS+gselect</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FAC+RAS+gRselect</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FAC+RAS+gRselect+PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>area avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BTB+PAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTB+FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTB+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FAC+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FAC+RAS+gshare</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FAC+RAS+gselect</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>FAC+RAS+gRselect</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FAC+RAS+gRselect+PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="89046016"/>
+        <c:axId val="89044096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89036288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89037824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89037824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Maximum Frequency (MHz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89036288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89044096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Area</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (ALUTs)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89046016"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="89046016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89044096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19775805802052521"/>
+          <c:y val="3.6431416394599708E-2"/>
+          <c:w val="0.3084147814856476"/>
+          <c:h val="6.1081954505421178E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1123952616346971"/>
+          <c:y val="4.1438378565067546E-2"/>
+          <c:w val="0.82115634219999434"/>
+          <c:h val="0.70416440276101633"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[4]Sheet1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAC+RAS+Bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FAC+RAS+gshare</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAC+RAS+gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="65607168"/>
+        <c:axId val="67923968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65607168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67923968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67923968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="86"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Million  Instructions per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65607168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$B$21:$I$21</c:f>
@@ -2408,16 +4076,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="90973696"/>
-        <c:axId val="90975232"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="138968448"/>
+        <c:axId val="138974336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90973696"/>
+        <c:axId val="138968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2432,18 +4111,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90975232"/>
+        <c:crossAx val="138974336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90975232"/>
+        <c:axId val="138974336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2473,8 +4154,11 @@
               <c:y val="0.39632327209098872"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2489,7 +4173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90973696"/>
+        <c:crossAx val="138968448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -2497,6 +4181,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2511,26 +4196,233 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10706838588876123"/>
+          <c:y val="3.9255189593736493E-2"/>
+          <c:w val="0.87523835867382405"/>
+          <c:h val="0.86707739623524949"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[5]Sheet1!$A$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>BTB+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FAC+RAS+bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAC+RAS+gshare</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FAC+RAS+gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[5]Sheet1!$A$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11219999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="66910848"/>
+        <c:axId val="66954752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66910848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66954752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66954752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66910848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="-3"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10856619317435107"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.87784424010092088"/>
+          <c:h val="0.79710511957602614"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IPC!$B$34</c:f>
+              <c:f>vs!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IPC</c:v>
+                  <c:v>gRselect 1KB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2545,58 +4437,202 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>IPC!$A$35:$A$38</c:f>
+              <c:f>vs!$B$3:$J$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Single-Cycle TAGE</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bzip2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>O-TAGE</c:v>
+                  <c:v>gobmk</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Single-Cycle TAGE-SC</c:v>
+                  <c:v>hmmer</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>O-TAGE-SC</c:v>
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>IPC!$B$35:$B$38</c:f>
+              <c:f>vs!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.3296</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.2101999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32440000000000002</c:v>
+                  <c:v>24.408300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33104</c:v>
+                  <c:v>14.3614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32941999999999999</c:v>
+                  <c:v>42.982700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.8843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.3695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.6753537024503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91024000"/>
-        <c:axId val="91099520"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vs!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>vs!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vs!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.9037999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.3628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1329000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2527354188912279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="77010048"/>
+        <c:axId val="77011584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91024000"/>
+        <c:axId val="77010048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2611,17 +4647,389 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91099520"/>
+        <c:crossAx val="77011584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91099520"/>
+        <c:axId val="77011584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77010048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57166772970999413"/>
+          <c:y val="7.350443977756424E-2"/>
+          <c:w val="0.35906293430589858"/>
+          <c:h val="9.7931023096031924E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10856619317435107"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.87784424010092088"/>
+          <c:h val="0.79710511957602614"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vs!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gRselect 1KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>vs!$B$14:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vs!$B$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.55269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32551637453799442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vs!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>vs!$B$14:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sjeng</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>h264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>xalanc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vs!$B$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.55279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50349999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3294220588981408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="93064192"/>
+        <c:axId val="76563200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93064192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76563200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76563200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2643,8 +5051,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2659,7 +5071,234 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91024000"/>
+        <c:crossAx val="93064192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6171579145510786"/>
+          <c:y val="6.4387632296900685E-2"/>
+          <c:w val="0.3077999548433028"/>
+          <c:h val="8.7867359783321469E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-Cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32941999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="138998912"/>
+        <c:axId val="139000448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="138998912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139000448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139000448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138998912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -2672,6 +5311,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2688,7 +5328,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2696,6 +5346,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2720,6 +5371,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$46:$A$53</c:f>
@@ -2786,16 +5438,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91144192"/>
-        <c:axId val="91145728"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="139102848"/>
+        <c:axId val="139104640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91144192"/>
+        <c:axId val="139102848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2810,17 +5473,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91145728"/>
+        <c:crossAx val="139104640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91145728"/>
+        <c:axId val="139104640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2842,8 +5507,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2858,7 +5527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91144192"/>
+        <c:crossAx val="139102848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -2866,6 +5535,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2882,8 +5552,19 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2899,6 +5580,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2923,6 +5605,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3006,6 +5689,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3089,6 +5773,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3172,6 +5857,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3252,6 +5938,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3335,6 +6022,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>IPC!$A$2:$A$9</c:f>
@@ -3401,17 +6089,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="92245376"/>
-        <c:axId val="91047040"/>
+        <c:axId val="139238016"/>
+        <c:axId val="139248000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92245376"/>
+        <c:axId val="139238016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3426,18 +6124,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91047040"/>
+        <c:crossAx val="139248000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91047040"/>
+        <c:axId val="139248000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3459,8 +6159,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3475,7 +6179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92245376"/>
+        <c:crossAx val="139238016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -3510,6 +6214,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3527,8 +6232,19 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3544,6 +6260,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3568,6 +6285,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3651,6 +6369,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3734,6 +6453,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3817,6 +6537,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3897,6 +6618,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -3980,6 +6702,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$3:$A$10</c:f>
@@ -4046,31 +6769,43 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="92405760"/>
-        <c:axId val="92407296"/>
+        <c:axId val="139323648"/>
+        <c:axId val="138747904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92405760"/>
+        <c:axId val="139323648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92407296"/>
+        <c:crossAx val="138747904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92407296"/>
+        <c:axId val="138747904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
           <c:min val="150"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4090,10 +6825,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92405760"/>
+        <c:crossAx val="139323648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4124,6 +6862,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4154,7 +6893,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4172,6 +6921,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4196,6 +6946,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>fmax_IPS!$A$38:$A$43</c:f>
@@ -4250,16 +7001,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92440064"/>
-        <c:axId val="92441600"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="138781824"/>
+        <c:axId val="138783360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92440064"/>
+        <c:axId val="138781824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4271,18 +7033,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92441600"/>
+        <c:crossAx val="138783360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92441600"/>
+        <c:axId val="138783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4302,8 +7066,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4315,13 +7082,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92440064"/>
+        <c:crossAx val="138781824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4352,12 +7120,24 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4451,6 +7231,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4546,17 +7327,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92503424"/>
-        <c:axId val="92521984"/>
+        <c:smooth val="0"/>
+        <c:axId val="138873088"/>
+        <c:axId val="138916224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92503424"/>
+        <c:axId val="138873088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4578,8 +7369,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4594,18 +7388,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92521984"/>
+        <c:crossAx val="138916224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92521984"/>
+        <c:axId val="138916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4628,8 +7424,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4644,7 +7443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92503424"/>
+        <c:crossAx val="138873088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4652,6 +7451,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4668,6 +7468,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -4684,8 +7485,19 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4701,6 +7513,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4725,6 +7538,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -4802,6 +7616,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -4879,6 +7694,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -4956,6 +7772,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5030,6 +7847,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5107,6 +7925,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>(fmax_IPS!$A$26:$A$29,fmax_IPS!$A$32:$A$33)</c:f>
@@ -5161,17 +7980,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="92568960"/>
-        <c:axId val="92578944"/>
+        <c:axId val="140208768"/>
+        <c:axId val="140218752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92568960"/>
+        <c:axId val="140208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5183,19 +8012,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92578944"/>
+        <c:crossAx val="140218752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92578944"/>
+        <c:axId val="140218752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="50"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5220,10 +8051,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92568960"/>
+        <c:crossAx val="140208768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5254,6 +8088,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -5441,11 +8276,310 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.06002</cdr:x>
-      <cdr:y>0.26782</cdr:y>
+      <cdr:x>0.02859</cdr:x>
+      <cdr:y>0.24276</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.06037</cdr:x>
+      <cdr:x>0.02859</cdr:x>
+      <cdr:y>0.55875</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="252168" y="522839"/>
+          <a:ext cx="0" cy="680532"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00374</cdr:x>
+      <cdr:y>0.55098</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06294</cdr:x>
+      <cdr:y>0.81299</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="33130" y="1186630"/>
+          <a:ext cx="524892" cy="564304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88418</cdr:x>
+      <cdr:y>0.38418</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8844</cdr:x>
+      <cdr:y>0.69741</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="7839596" y="827400"/>
+          <a:ext cx="1950" cy="674605"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86058</cdr:x>
+      <cdr:y>0.11362</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91121</cdr:x>
+      <cdr:y>0.37564</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="7630370" y="244708"/>
+          <a:ext cx="448935" cy="564304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.06002</cdr:x>
+      <cdr:y>0.23632</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06002</cdr:x>
       <cdr:y>0.56682</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -5454,9 +8588,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="378822" y="588066"/>
-          <a:ext cx="2178" cy="656522"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="376820" y="497371"/>
+          <a:ext cx="0" cy="695563"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -5589,15 +8723,15 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.06829</cdr:x>
-      <cdr:y>0.18295</cdr:y>
+      <cdr:y>0.17284</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.06869</cdr:x>
+      <cdr:x>0.06829</cdr:x>
       <cdr:y>0.48394</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -5606,9 +8740,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="378587" y="352881"/>
-          <a:ext cx="2197" cy="580541"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="378569" y="333376"/>
+          <a:ext cx="1" cy="600053"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -5741,15 +8875,15 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.06508</cdr:x>
-      <cdr:y>0.17428</cdr:y>
+      <cdr:y>0.17259</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.06548</cdr:x>
+      <cdr:x>0.06508</cdr:x>
       <cdr:y>0.48367</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -5758,9 +8892,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="359538" y="327025"/>
-          <a:ext cx="2197" cy="580541"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="359534" y="323850"/>
+          <a:ext cx="0" cy="583720"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -5893,16 +9027,181 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>565641</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598049</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>147079</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05132</cdr:x>
-      <cdr:y>0.3635</cdr:y>
+      <cdr:x>0.03693</cdr:x>
+      <cdr:y>0.41473</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.05153</cdr:x>
-      <cdr:y>0.62485</cdr:y>
+      <cdr:x>0.03698</cdr:x>
+      <cdr:y>0.61268</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -5911,8 +9210,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
-          <a:off x="458980" y="938301"/>
-          <a:ext cx="1941" cy="674598"/>
+          <a:off x="231603" y="1424083"/>
+          <a:ext cx="310" cy="679700"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -5942,12 +9241,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.02804</cdr:x>
-      <cdr:y>0.13776</cdr:y>
+      <cdr:x>0.00356</cdr:x>
+      <cdr:y>0.24503</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.07797</cdr:x>
-      <cdr:y>0.35638</cdr:y>
+      <cdr:x>0.07513</cdr:x>
+      <cdr:y>0.40937</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -5956,8 +9255,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
-          <a:off x="250825" y="355600"/>
-          <a:ext cx="446564" cy="564308"/>
+          <a:off x="22225" y="841375"/>
+          <a:ext cx="446513" cy="564319"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6041,6 +9340,1284 @@
         </a:p>
       </cdr:txBody>
     </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.25219</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06466</cdr:x>
+      <cdr:y>0.38761</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="0" y="1050925"/>
+          <a:ext cx="446513" cy="564319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02826</cdr:x>
+      <cdr:y>0.39017</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.0283</cdr:x>
+      <cdr:y>0.55328</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="194836" y="1625910"/>
+          <a:ext cx="308" cy="679700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00573</cdr:x>
+      <cdr:y>0.23914</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06774</cdr:x>
+      <cdr:y>0.34785</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="41275" y="1241425"/>
+          <a:ext cx="446513" cy="564319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03283</cdr:x>
+      <cdr:y>0.34991</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.03287</cdr:x>
+      <cdr:y>0.48084</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="236400" y="1816410"/>
+          <a:ext cx="308" cy="679700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9568</cdr:x>
+      <cdr:y>0.25872</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95681</cdr:x>
+      <cdr:y>0.42738</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="6873031" y="1343025"/>
+          <a:ext cx="1" cy="875567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92678</cdr:x>
+      <cdr:y>0.4239</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99929</cdr:x>
+      <cdr:y>0.5326</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="6657362" y="2200519"/>
+          <a:ext cx="520878" cy="564287"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01133</cdr:x>
+      <cdr:y>0.26128</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05745</cdr:x>
+      <cdr:y>0.35278</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="109415" y="1611434"/>
+          <a:ext cx="445423" cy="564319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03148</cdr:x>
+      <cdr:y>0.35451</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.03151</cdr:x>
+      <cdr:y>0.46472</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="304064" y="2186419"/>
+          <a:ext cx="307" cy="679700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00458</cdr:x>
+      <cdr:y>0.2631</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.06099</cdr:x>
+      <cdr:y>0.39916</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="36146" y="1091223"/>
+          <a:ext cx="445423" cy="564319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02923</cdr:x>
+      <cdr:y>0.40173</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.02927</cdr:x>
+      <cdr:y>0.56561</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="230795" y="1666208"/>
+          <a:ext cx="307" cy="679700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02911</cdr:x>
+      <cdr:y>0.1968</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07903</cdr:x>
+      <cdr:y>0.41542</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="260350" y="508000"/>
+          <a:ext cx="446513" cy="564319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05093</cdr:x>
+      <cdr:y>0.41955</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05096</cdr:x>
+      <cdr:y>0.68287</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="455475" y="1082985"/>
+          <a:ext cx="308" cy="679700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342902</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02955</cdr:x>
+      <cdr:y>0.20171</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.02955</cdr:x>
+      <cdr:y>0.51463</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="239250" y="561975"/>
+          <a:ext cx="0" cy="871825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00275</cdr:x>
+      <cdr:y>0.449</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05108</cdr:x>
+      <cdr:y>0.7164</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="22225" y="1250950"/>
+          <a:ext cx="391327" cy="744972"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00392</cdr:x>
+      <cdr:y>0.16524</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05907</cdr:x>
+      <cdr:y>0.36779</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="31750" y="460375"/>
+          <a:ext cx="446513" cy="564319"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02802</cdr:x>
+      <cdr:y>0.37162</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.02806</cdr:x>
+      <cdr:y>0.61559</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="226875" y="1035360"/>
+          <a:ext cx="308" cy="679700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -6657,6 +11234,158 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03013</cdr:x>
+      <cdr:y>0.14981</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.03013</cdr:x>
+      <cdr:y>0.43295</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="200025" y="317500"/>
+          <a:ext cx="1" cy="600053"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.37453</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07864</cdr:x>
+      <cdr:y>0.68057</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="0" y="793754"/>
+          <a:ext cx="522091" cy="648582"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6811,7 +11540,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -6899,303 +11628,495 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02859</cdr:x>
-      <cdr:y>0.25211</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.02859</cdr:x>
-      <cdr:y>0.55875</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="253479" y="542968"/>
-          <a:ext cx="0" cy="660393"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.00374</cdr:x>
-      <cdr:y>0.55098</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.06294</cdr:x>
-      <cdr:y>0.81299</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
-          <a:off x="33130" y="1186630"/>
-          <a:ext cx="524892" cy="564304"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>better</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.88418</cdr:x>
-      <cdr:y>0.38418</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.8844</cdr:x>
-      <cdr:y>0.69741</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
-          <a:off x="7839596" y="827400"/>
-          <a:ext cx="1950" cy="674605"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.86058</cdr:x>
-      <cdr:y>0.11362</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.91121</cdr:x>
-      <cdr:y>0.37564</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 2"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
-          <a:off x="7630370" y="244708"/>
-          <a:ext cx="448935" cy="564304"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>better</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>BTB-256 filtering</v>
+          </cell>
+          <cell r="B2">
+            <v>0.30320000000000003</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>BTB-512</v>
+          </cell>
+          <cell r="B3">
+            <v>0.29809999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>BTB-1024</v>
+          </cell>
+          <cell r="B4">
+            <v>0.29380000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>BTB-PAC</v>
+          </cell>
+          <cell r="B5">
+            <v>0.80710000000000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BTB-FAC</v>
+          </cell>
+          <cell r="B6">
+            <v>0.90159999999999996</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>FAC</v>
+          </cell>
+          <cell r="B7">
+            <v>0.84470000000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FAC+RAS</v>
+          </cell>
+          <cell r="B8">
+            <v>0.93559999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Base</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>bimodal-256</v>
+          </cell>
+          <cell r="B2">
+            <v>0.17299999999999999</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>bimodal-768</v>
+          </cell>
+          <cell r="B3">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>bimodal-4096</v>
+          </cell>
+          <cell r="B4">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>gshare-256</v>
+          </cell>
+          <cell r="B5">
+            <v>0.79</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>gshare-768</v>
+          </cell>
+          <cell r="B6">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>gshare-4096</v>
+          </cell>
+          <cell r="B7">
+            <v>0.82</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>gselect-768</v>
+          </cell>
+          <cell r="B8">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>gselect-4096</v>
+          </cell>
+          <cell r="B9">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>gRselect-768</v>
+          </cell>
+          <cell r="B10">
+            <v>0.79</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>gRselect-4096</v>
+          </cell>
+          <cell r="B11">
+            <v>0.79</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>fmax avg</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>dumP</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>dumS</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>area avg</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Base</v>
+          </cell>
+          <cell r="B2">
+            <v>353.42</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>BTB+bimodal</v>
+          </cell>
+          <cell r="B3">
+            <v>287.11</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>BTB+PAC+bimodal</v>
+          </cell>
+          <cell r="B4">
+            <v>265.52</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>BTB+FAC+bimodal</v>
+          </cell>
+          <cell r="B5">
+            <v>262.26</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>107.6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BTB+RAS+bimodal</v>
+          </cell>
+          <cell r="B6">
+            <v>277.33</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>FAC+bimodal</v>
+          </cell>
+          <cell r="B7">
+            <v>261.94</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>103.2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>FAC+RAS+bimodal</v>
+          </cell>
+          <cell r="B8">
+            <v>252.03</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>141.6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>FAC+RAS+gshare</v>
+          </cell>
+          <cell r="B9">
+            <v>232.65</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>154.4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FAC+RAS+gselect</v>
+          </cell>
+          <cell r="B10">
+            <v>241.37</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>142.6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>FAC+RAS+gRselect</v>
+          </cell>
+          <cell r="B11">
+            <v>243.13</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>151.4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>FAC+RAS+gRselect+PD</v>
+          </cell>
+          <cell r="B12">
+            <v>259.61</v>
+          </cell>
+          <cell r="E12">
+            <v>147.80000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Base</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>BTB+bimodal</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>FAC+RAS+Bimodal</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>FAC+RAS+gshare</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>FAC+RAS+gRselect</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>IPS</v>
+          </cell>
+          <cell r="B2">
+            <v>78.400000000000006</v>
+          </cell>
+          <cell r="C2">
+            <v>81.84</v>
+          </cell>
+          <cell r="D2">
+            <v>81.13</v>
+          </cell>
+          <cell r="E2">
+            <v>76.2</v>
+          </cell>
+          <cell r="F2">
+            <v>84.92</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>BTB+bimodal</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>FAC+RAS+bimodal</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>FAC+RAS+gshare</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>FAC+RAS+gRselect</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>2.3400000000000001E-2</v>
+          </cell>
+          <cell r="B2">
+            <v>9.8699999999999996E-2</v>
+          </cell>
+          <cell r="C2">
+            <v>0.1172</v>
+          </cell>
+          <cell r="D2">
+            <v>0.11219999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7273,6 +12194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -7307,6 +12229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7482,20 +12405,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7515,7 +12438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7542,7 +12465,7 @@
         <v>0.3276</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7569,7 +12492,7 @@
         <v>0.3286</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7596,7 +12519,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7623,7 +12546,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -7635,7 +12558,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7647,7 +12570,7 @@
         <v>0.32668999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -7659,7 +12582,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7671,7 +12594,7 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -7691,7 +12614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -7714,7 +12637,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -7722,7 +12645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -7748,7 +12671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -7777,18 +12700,18 @@
         <v>0.30529000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="2">
         <f>G22/B22</f>
         <v>0.99941981189690987</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -7796,7 +12719,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -7804,7 +12727,7 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -7817,7 +12740,7 @@
         <v>1.0043689320388349</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -7830,18 +12753,18 @@
         <v>1.0154747225647347</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f>B38/B37</f>
         <v>0.99510633156114059</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -7853,7 +12776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +12788,7 @@
         <v>1.003052503052503</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -7877,7 +12800,7 @@
         <v>0.99206349206349209</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -7889,7 +12812,7 @@
         <v>0.99877899877899878</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -7902,7 +12825,7 @@
         <v>1.0061050061050061</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -7915,7 +12838,7 @@
         <v>0.99023199023199027</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -7928,7 +12851,7 @@
         <v>1.0105006105006105</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -7949,25 +12872,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -7987,7 +12910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8010,7 +12933,7 @@
         <v>248.94800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8033,7 +12956,7 @@
         <v>197.11199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8056,7 +12979,7 @@
         <v>200.99199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8085,7 +13008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -8093,7 +13016,7 @@
         <v>221.874</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -8101,7 +13024,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -8117,7 +13040,7 @@
         <v>0.82838518518518511</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8125,12 +13048,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -8150,7 +13073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -8173,7 +13096,7 @@
         <v>0.3276</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8196,7 +13119,7 @@
         <v>0.3286</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8219,7 +13142,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8242,7 +13165,7 @@
         <v>0.32719999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8250,7 +13173,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -8258,7 +13181,7 @@
         <v>0.32668999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -8266,7 +13189,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -8274,12 +13197,12 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -8299,7 +13222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -8332,7 +13255,7 @@
         <v>84.499800000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -8365,7 +13288,7 @@
         <v>77.900270000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -8398,7 +13321,7 @@
         <v>81.547200000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -8431,7 +13354,7 @@
         <v>84.7029414</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -8444,7 +13367,7 @@
         <v>73.129670399999995</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -8457,7 +13380,7 @@
         <v>88.206299999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -8470,7 +13393,7 @@
         <v>74.041730559999991</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -8483,12 +13406,12 @@
         <v>88.943399999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8500,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -8512,7 +13435,7 @@
         <v>0.92189886839968849</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -8524,7 +13447,7 @@
         <v>0.96505790546249814</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -8536,7 +13459,7 @@
         <v>1.0024040459267358</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -8548,7 +13471,7 @@
         <v>0.87623557168182631</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -8560,7 +13483,7 @@
         <v>1.0553784117832232</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3</v>
       </c>
@@ -8583,7 +13506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -8609,7 +13532,7 @@
         <v>0.31917000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -8635,7 +13558,7 @@
         <v>0.31151000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3</v>
       </c>
@@ -8658,7 +13581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -8694,7 +13617,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -8730,12 +13653,12 @@
         <v>259.60000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -8755,7 +13678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -8778,7 +13701,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -8801,7 +13724,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -8824,7 +13747,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -8847,7 +13770,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -8855,7 +13778,7 @@
         <v>676.6</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -8863,7 +13786,7 @@
         <v>432.6</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>37</v>
       </c>
@@ -8871,7 +13794,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -8879,7 +13802,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -8891,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -8903,7 +13826,7 @@
         <v>1.0405405405405406</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -8915,7 +13838,7 @@
         <v>0.95945945945945943</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -8927,7 +13850,7 @@
         <v>6.4527027027027026</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -8947,24 +13870,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +13907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9011,7 +13934,7 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -9038,7 +13961,7 @@
         <v>2.3151409692665834</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9065,7 +13988,7 @@
         <v>3.6765349072354034</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9096,7 +14019,7 @@
         <v>0.80440149768643421</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -9108,7 +14031,7 @@
         <v>2.3866955110870745</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -9120,7 +14043,7 @@
         <v>2.3877536623791946</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -9132,7 +14055,7 @@
         <v>1.0006348907752722</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9148,7 +14071,7 @@
         <v>2.3137301008770899</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -9162,7 +14085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9179,7 +14102,7 @@
         <v>0.3296</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9196,7 +14119,7 @@
         <v>0.32440000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -9213,7 +14136,7 @@
         <v>0.33104</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9230,7 +14153,7 @@
         <v>0.32941999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9238,7 +14161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8</v>
       </c>
@@ -9264,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9293,7 +14216,7 @@
         <v>61.291469999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G34">
         <f>G33/$B$33</f>
         <v>1.0098696715494957</v>
@@ -9303,7 +14226,7 @@
         <v>2.0099948046023619</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -9323,7 +14246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -9346,7 +14269,7 @@
         <v>12.232239999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38">
         <f>F37/G37</f>
         <v>1.0322361235554567</v>
@@ -9356,4 +14279,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F21:F46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P123" sqref="P123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>3.2101999999999999</v>
+      </c>
+      <c r="C4">
+        <v>24.408300000000001</v>
+      </c>
+      <c r="D4">
+        <v>14.3614</v>
+      </c>
+      <c r="E4">
+        <v>42.982700000000001</v>
+      </c>
+      <c r="F4">
+        <v>16.8843</v>
+      </c>
+      <c r="G4">
+        <v>10.5769</v>
+      </c>
+      <c r="H4">
+        <v>6.2363</v>
+      </c>
+      <c r="I4">
+        <v>12.3695</v>
+      </c>
+      <c r="J4">
+        <f>GEOMEAN(B4:I4)</f>
+        <v>12.6753537024503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2.9037999999999999</v>
+      </c>
+      <c r="C5">
+        <v>12.3628</v>
+      </c>
+      <c r="D5">
+        <v>10.4034</v>
+      </c>
+      <c r="E5">
+        <v>23.997</v>
+      </c>
+      <c r="F5">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.1329000000000002</v>
+      </c>
+      <c r="H5">
+        <v>5.2396000000000003</v>
+      </c>
+      <c r="I5">
+        <v>7.8643000000000001</v>
+      </c>
+      <c r="J5">
+        <f>GEOMEAN(B5:I5)</f>
+        <v>4.2527354188912279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <f>B4/B5 -1</f>
+        <v>0.1055169088780219</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:J6" si="0">C4/C5 -1</f>
+        <v>0.97433429320218723</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38045254436049758</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79116972954952702</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>239.86019971469329</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5591957221321588</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1902244446140926</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57286726091324081</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9805178206348457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.1258</v>
+      </c>
+      <c r="I15">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="J15">
+        <f>GEOMEAN(B15:I15)</f>
+        <v>0.32551637453799442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="C16">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="F16">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.1239</v>
+      </c>
+      <c r="I16">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="J16">
+        <f>GEOMEAN(B16:I16)</f>
+        <v>0.3294220588981408</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f>B16/B15-1</f>
+        <v>1.8092998009766603E-4</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:J17" si="1">C16/C15-1</f>
+        <v>3.6569987389659442E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3736263736263687E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2011589403973426E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0485160831704254E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2010294538175481E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.5103338632750374E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6881622767182041E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1998426701850917E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="4"/>
@@ -196,7 +196,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,7 +240,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,11 +365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138942336"/>
-        <c:axId val="138943872"/>
+        <c:axId val="194513152"/>
+        <c:axId val="194883584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138942336"/>
+        <c:axId val="194513152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138943872"/>
+        <c:crossAx val="194883584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138943872"/>
+        <c:axId val="194883584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +425,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -445,7 +444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138942336"/>
+        <c:crossAx val="194513152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -570,11 +569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139339264"/>
-        <c:axId val="139340800"/>
+        <c:axId val="197369856"/>
+        <c:axId val="197371392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139339264"/>
+        <c:axId val="197369856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139340800"/>
+        <c:crossAx val="197371392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139340800"/>
+        <c:axId val="197371392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -631,7 +630,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -651,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139339264"/>
+        <c:crossAx val="197369856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1223,11 +1221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="140105216"/>
-        <c:axId val="140106752"/>
+        <c:axId val="198973696"/>
+        <c:axId val="198983680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140105216"/>
+        <c:axId val="198973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140106752"/>
+        <c:crossAx val="198983680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140106752"/>
+        <c:axId val="198983680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1284,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1306,7 +1303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140105216"/>
+        <c:crossAx val="198973696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,8 +1527,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140170368"/>
-        <c:axId val="140171904"/>
+        <c:axId val="199123328"/>
+        <c:axId val="199124864"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1675,11 +1672,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140524160"/>
-        <c:axId val="140522240"/>
+        <c:axId val="199038848"/>
+        <c:axId val="199036928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140170368"/>
+        <c:axId val="199123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140171904"/>
+        <c:crossAx val="199124864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140171904"/>
+        <c:axId val="199124864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,12 +1759,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140170368"/>
+        <c:crossAx val="199123328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140522240"/>
+        <c:axId val="199036928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1794,7 +1791,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1814,13 +1810,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140524160"/>
+        <c:crossAx val="199038848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="140524160"/>
+        <c:axId val="199038848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="140522240"/>
+        <c:crossAx val="199036928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1997,11 +1993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140563584"/>
-        <c:axId val="140565120"/>
+        <c:axId val="199077888"/>
+        <c:axId val="199079424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140563584"/>
+        <c:axId val="199077888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,7 +2019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140565120"/>
+        <c:crossAx val="199079424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2031,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140565120"/>
+        <c:axId val="199079424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140563584"/>
+        <c:crossAx val="199077888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2242,11 +2238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140664192"/>
-        <c:axId val="140670464"/>
+        <c:axId val="199444352"/>
+        <c:axId val="199446528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140664192"/>
+        <c:axId val="199444352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2270,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2294,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140670464"/>
+        <c:crossAx val="199446528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140670464"/>
+        <c:axId val="199446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2326,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2351,7 +2345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140664192"/>
+        <c:crossAx val="199444352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,11 +2487,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140691712"/>
-        <c:axId val="140705792"/>
+        <c:axId val="199483776"/>
+        <c:axId val="199485312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140691712"/>
+        <c:axId val="199483776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140705792"/>
+        <c:crossAx val="199485312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +2521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140705792"/>
+        <c:axId val="199485312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2547,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2573,7 +2566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140691712"/>
+        <c:crossAx val="199483776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2710,11 +2703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66534784"/>
-        <c:axId val="68666496"/>
+        <c:axId val="199498368"/>
+        <c:axId val="199520640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66534784"/>
+        <c:axId val="199498368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68666496"/>
+        <c:crossAx val="199520640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2744,7 +2737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68666496"/>
+        <c:axId val="199520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +2761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66534784"/>
+        <c:crossAx val="199498368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2941,11 +2934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71260416"/>
-        <c:axId val="65622016"/>
+        <c:axId val="194646400"/>
+        <c:axId val="194647936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71260416"/>
+        <c:axId val="194646400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +2960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65622016"/>
+        <c:crossAx val="194647936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2975,7 +2968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65622016"/>
+        <c:axId val="194647936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +2992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71260416"/>
+        <c:crossAx val="194646400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,8 +3274,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89036288"/>
-        <c:axId val="89037824"/>
+        <c:axId val="194696704"/>
+        <c:axId val="194698240"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3513,11 +3506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89046016"/>
-        <c:axId val="89044096"/>
+        <c:axId val="194710528"/>
+        <c:axId val="194708608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89036288"/>
+        <c:axId val="194696704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3539,7 +3532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89037824"/>
+        <c:crossAx val="194698240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3547,7 +3540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89037824"/>
+        <c:axId val="194698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3575,7 +3568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3595,12 +3587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89036288"/>
+        <c:crossAx val="194696704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89044096"/>
+        <c:axId val="194708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3637,7 +3629,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3657,12 +3648,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89046016"/>
+        <c:crossAx val="194710528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89046016"/>
+        <c:axId val="194710528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3671,7 +3662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89044096"/>
+        <c:crossAx val="194708608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3852,11 +3843,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="65607168"/>
-        <c:axId val="67923968"/>
+        <c:axId val="194753664"/>
+        <c:axId val="194755200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65607168"/>
+        <c:axId val="194753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67923968"/>
+        <c:crossAx val="194755200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3886,7 +3877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67923968"/>
+        <c:axId val="194755200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3933,7 +3924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65607168"/>
+        <c:crossAx val="194753664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4085,11 +4076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138968448"/>
-        <c:axId val="138974336"/>
+        <c:axId val="196418944"/>
+        <c:axId val="196420736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138968448"/>
+        <c:axId val="196418944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,7 +4102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138974336"/>
+        <c:crossAx val="196420736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4119,7 +4110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138974336"/>
+        <c:axId val="196420736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4173,7 +4164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138968448"/>
+        <c:crossAx val="196418944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4292,11 +4283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66910848"/>
-        <c:axId val="66954752"/>
+        <c:axId val="194763776"/>
+        <c:axId val="204346112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66910848"/>
+        <c:axId val="194763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,7 +4309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66954752"/>
+        <c:crossAx val="204346112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4326,7 +4317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66954752"/>
+        <c:axId val="204346112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4351,7 +4342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66910848"/>
+        <c:crossAx val="194763776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4621,11 +4612,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77010048"/>
-        <c:axId val="77011584"/>
+        <c:axId val="204437376"/>
+        <c:axId val="204438912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77010048"/>
+        <c:axId val="204437376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,7 +4638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77011584"/>
+        <c:crossAx val="204438912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4655,7 +4646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77011584"/>
+        <c:axId val="204438912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77010048"/>
+        <c:crossAx val="204437376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4991,11 +4982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93064192"/>
-        <c:axId val="76563200"/>
+        <c:axId val="204080256"/>
+        <c:axId val="204081792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93064192"/>
+        <c:axId val="204080256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,7 +5008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76563200"/>
+        <c:crossAx val="204081792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5025,7 +5016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76563200"/>
+        <c:axId val="204081792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5071,7 +5062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93064192"/>
+        <c:crossAx val="204080256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5218,11 +5209,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138998912"/>
-        <c:axId val="139000448"/>
+        <c:axId val="196453120"/>
+        <c:axId val="196454656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138998912"/>
+        <c:axId val="196453120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139000448"/>
+        <c:crossAx val="196454656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5252,7 +5243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139000448"/>
+        <c:axId val="196454656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +5269,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5298,7 +5288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138998912"/>
+        <c:crossAx val="196453120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -5447,11 +5437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139102848"/>
-        <c:axId val="139104640"/>
+        <c:axId val="196470656"/>
+        <c:axId val="196472192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139102848"/>
+        <c:axId val="196470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5473,7 +5463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139104640"/>
+        <c:crossAx val="196472192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5481,7 +5471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139104640"/>
+        <c:axId val="196472192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5507,7 +5497,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5527,7 +5516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139102848"/>
+        <c:crossAx val="196470656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6098,11 +6087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="139238016"/>
-        <c:axId val="139248000"/>
+        <c:axId val="196015232"/>
+        <c:axId val="196016768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139238016"/>
+        <c:axId val="196015232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6124,7 +6113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139248000"/>
+        <c:crossAx val="196016768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6132,7 +6121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139248000"/>
+        <c:axId val="196016768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -6159,7 +6148,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6179,7 +6167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139238016"/>
+        <c:crossAx val="196015232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6778,11 +6766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="139323648"/>
-        <c:axId val="138747904"/>
+        <c:axId val="196535040"/>
+        <c:axId val="196536576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139323648"/>
+        <c:axId val="196535040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,7 +6779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138747904"/>
+        <c:crossAx val="196536576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6799,7 +6787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138747904"/>
+        <c:axId val="196536576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -6824,14 +6812,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139323648"/>
+        <c:crossAx val="196535040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7010,11 +6997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138781824"/>
-        <c:axId val="138783360"/>
+        <c:axId val="197217280"/>
+        <c:axId val="197231360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138781824"/>
+        <c:axId val="197217280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7033,7 +7020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138783360"/>
+        <c:crossAx val="197231360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7041,7 +7028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138783360"/>
+        <c:axId val="197231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -7065,7 +7052,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7082,7 +7068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138781824"/>
+        <c:crossAx val="197217280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7339,11 +7325,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138873088"/>
-        <c:axId val="138916224"/>
+        <c:axId val="197268608"/>
+        <c:axId val="197270912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138873088"/>
+        <c:axId val="197268608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7388,7 +7373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138916224"/>
+        <c:crossAx val="197270912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7396,7 +7381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138916224"/>
+        <c:axId val="197270912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7423,7 +7408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7443,14 +7427,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138873088"/>
+        <c:crossAx val="197268608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7989,11 +7972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="140208768"/>
-        <c:axId val="140218752"/>
+        <c:axId val="197322624"/>
+        <c:axId val="197324160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140208768"/>
+        <c:axId val="197322624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8012,7 +7995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140218752"/>
+        <c:crossAx val="197324160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8020,7 +8003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140218752"/>
+        <c:axId val="197324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8050,14 +8033,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140208768"/>
+        <c:crossAx val="197322624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11695,8 +11677,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11798,8 +11780,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12006,13 +11988,15 @@
           <cell r="B12">
             <v>259.61</v>
           </cell>
+          <cell r="C12"/>
+          <cell r="D12"/>
           <cell r="E12">
             <v>147.80000000000001</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12066,8 +12050,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12112,8 +12096,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14312,7 +14296,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="4"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,6 @@
     <sheet name="min" sheetId="4" r:id="rId4"/>
     <sheet name="vs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -365,11 +358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194513152"/>
-        <c:axId val="194883584"/>
+        <c:axId val="207431936"/>
+        <c:axId val="207536128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194513152"/>
+        <c:axId val="207431936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194883584"/>
+        <c:crossAx val="207536128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -399,7 +392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194883584"/>
+        <c:axId val="207536128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194513152"/>
+        <c:crossAx val="207431936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -569,11 +562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197369856"/>
-        <c:axId val="197371392"/>
+        <c:axId val="215068672"/>
+        <c:axId val="215070208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197369856"/>
+        <c:axId val="215068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197371392"/>
+        <c:crossAx val="215070208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197371392"/>
+        <c:axId val="215070208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -649,7 +642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197369856"/>
+        <c:crossAx val="215068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1221,11 +1214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="198973696"/>
-        <c:axId val="198983680"/>
+        <c:axId val="214841600"/>
+        <c:axId val="214851584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198973696"/>
+        <c:axId val="214841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198983680"/>
+        <c:crossAx val="214851584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198983680"/>
+        <c:axId val="214851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198973696"/>
+        <c:crossAx val="214841600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,8 +1520,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199123328"/>
-        <c:axId val="199124864"/>
+        <c:axId val="214892928"/>
+        <c:axId val="214894464"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1672,11 +1665,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199038848"/>
-        <c:axId val="199036928"/>
+        <c:axId val="214898560"/>
+        <c:axId val="214896640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199123328"/>
+        <c:axId val="214892928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199124864"/>
+        <c:crossAx val="214894464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199124864"/>
+        <c:axId val="214894464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,12 +1752,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199123328"/>
+        <c:crossAx val="214892928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199036928"/>
+        <c:axId val="214896640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1810,13 +1803,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199038848"/>
+        <c:crossAx val="214898560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="199038848"/>
+        <c:axId val="214898560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="199036928"/>
+        <c:crossAx val="214896640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1993,11 +1986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199077888"/>
-        <c:axId val="199079424"/>
+        <c:axId val="214953984"/>
+        <c:axId val="214955520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199077888"/>
+        <c:axId val="214953984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199079424"/>
+        <c:crossAx val="214955520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2027,7 +2020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199079424"/>
+        <c:axId val="214955520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199077888"/>
+        <c:crossAx val="214953984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2238,11 +2231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199444352"/>
-        <c:axId val="199446528"/>
+        <c:axId val="215246720"/>
+        <c:axId val="215248896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199444352"/>
+        <c:axId val="215246720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199446528"/>
+        <c:crossAx val="215248896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,7 +2290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199446528"/>
+        <c:axId val="215248896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199444352"/>
+        <c:crossAx val="215246720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2487,11 +2480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199483776"/>
-        <c:axId val="199485312"/>
+        <c:axId val="215282048"/>
+        <c:axId val="215283584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199483776"/>
+        <c:axId val="215282048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199485312"/>
+        <c:crossAx val="215283584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2521,7 +2514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199485312"/>
+        <c:axId val="215283584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +2559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199483776"/>
+        <c:crossAx val="215282048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2635,63 +2628,57 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet1!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>BTB-256 filtering</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BTB-512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BTB-1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BTB-PAC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BTB-FAC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FAC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAC+RAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>BTB-256 filtering</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>BTB-512</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>BTB-1024</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>BTB-PAC</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>BTB-FAC</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>FAC</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>FAC+RAS</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.30320000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80710000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90159999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93559999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>0.30320000000000003</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.29809999999999998</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.29380000000000001</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.80710000000000004</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.90159999999999996</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.84470000000000001</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0.93559999999999999</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -2703,11 +2690,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199498368"/>
-        <c:axId val="199520640"/>
+        <c:axId val="215566976"/>
+        <c:axId val="215585152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199498368"/>
+        <c:axId val="215566976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,7 +2716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199520640"/>
+        <c:crossAx val="215585152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2737,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199520640"/>
+        <c:axId val="215585152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199498368"/>
+        <c:crossAx val="215566976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2826,15 +2813,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Base</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2848,81 +2827,75 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[2]Sheet1!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>bimodal-256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bimodal-768</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>bimodal-4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>gshare-256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>gshare-768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>gshare-4096</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>gselect-768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>gselect-4096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>gRselect-768</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>gRselect-4096</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>bimodal-256</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>bimodal-768</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>bimodal-4096</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>gshare-256</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>gshare-768</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>gshare-4096</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>gselect-768</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>gselect-4096</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>gRselect-768</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>gRselect-4096</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[2]Sheet1!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.17299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>0.17299999999999999</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.79</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.8</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.82</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0.83</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>0.8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0.79</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>0.79</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -2934,11 +2907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194646400"/>
-        <c:axId val="194647936"/>
+        <c:axId val="209981824"/>
+        <c:axId val="209983360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194646400"/>
+        <c:axId val="209981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,7 +2933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194647936"/>
+        <c:crossAx val="209983360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2968,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194647936"/>
+        <c:axId val="209983360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +2965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194646400"/>
+        <c:crossAx val="209981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,15 +3031,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[3]Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fmax avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>fmax avg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3080,102 +3045,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BTB+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BTB+PAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BTB+FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BTB+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAC+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FAC+RAS+gshare</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FAC+RAS+gselect</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FAC+RAS+gRselect</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FAC+RAS+gRselect+PD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>Base</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>BTB+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>BTB+PAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>BTB+FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>BTB+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>FAC+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>FAC+RAS+gshare</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>FAC+RAS+gselect</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>FAC+RAS+gRselect</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>FAC+RAS+gRselect+PD</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[3]Sheet1!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>353.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>287.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>265.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>262.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>277.33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>261.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>252.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>232.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>241.37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>243.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>259.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>353.42</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>287.11</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>265.52</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>262.26</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>277.33</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>261.94</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>252.03</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>232.65</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>241.37</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>243.13</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>259.61</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[3]Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dumP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>dumP</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -3185,84 +3136,81 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BTB+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BTB+PAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BTB+FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BTB+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAC+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FAC+RAS+gshare</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FAC+RAS+gselect</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FAC+RAS+gRselect</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FAC+RAS+gRselect+PD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>Base</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>BTB+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>BTB+PAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>BTB+FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>BTB+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>FAC+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>FAC+RAS+gshare</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>FAC+RAS+gselect</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>FAC+RAS+gRselect</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>FAC+RAS+gRselect+PD</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[3]Sheet1!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -3274,8 +3222,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194696704"/>
-        <c:axId val="194698240"/>
+        <c:axId val="210028032"/>
+        <c:axId val="210029568"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3285,15 +3233,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[3]Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dumS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>dumS</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -3303,99 +3243,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BTB+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BTB+PAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BTB+FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BTB+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAC+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FAC+RAS+gshare</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FAC+RAS+gselect</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FAC+RAS+gRselect</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FAC+RAS+gRselect+PD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>Base</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>BTB+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>BTB+PAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>BTB+FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>BTB+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>FAC+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>FAC+RAS+gshare</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>FAC+RAS+gselect</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>FAC+RAS+gRselect</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>FAC+RAS+gRselect+PD</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[3]Sheet1!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[3]Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>area avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>area avg</c:v>
           </c:tx>
           <c:spPr>
             <a:pattFill prst="pct20">
@@ -3414,87 +3343,81 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BTB+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BTB+PAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BTB+FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BTB+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FAC+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAC+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FAC+RAS+gshare</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>FAC+RAS+gselect</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>FAC+RAS+gRselect</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FAC+RAS+gRselect+PD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>Base</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>BTB+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>BTB+PAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>BTB+FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>BTB+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>FAC+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>FAC+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>FAC+RAS+gshare</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>FAC+RAS+gselect</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>FAC+RAS+gRselect</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>FAC+RAS+gRselect+PD</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[3]Sheet1!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>107.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>141.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>154.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>142.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>151.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147.80000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>108</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>107.6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>77</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>103.2</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>141.6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>154.4</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>142.6</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>151.4</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>147.80000000000001</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -3506,11 +3429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194710528"/>
-        <c:axId val="194708608"/>
+        <c:axId val="210050048"/>
+        <c:axId val="210048128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194696704"/>
+        <c:axId val="210028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +3455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194698240"/>
+        <c:crossAx val="210029568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3540,7 +3463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194698240"/>
+        <c:axId val="210029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3568,6 +3491,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3587,12 +3511,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194696704"/>
+        <c:crossAx val="210028032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194708608"/>
+        <c:axId val="210048128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3629,6 +3553,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3648,12 +3573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194710528"/>
+        <c:crossAx val="210050048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="194710528"/>
+        <c:axId val="210050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194708608"/>
+        <c:crossAx val="210048128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3765,15 +3690,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[4]Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IPS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>IPS</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -3787,51 +3704,45 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[4]Sheet1!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Base</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BTB+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FAC+RAS+Bimodal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FAC+RAS+gshare</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FAC+RAS+gRselect</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Base</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>BTB+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>FAC+RAS+Bimodal</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>FAC+RAS+gshare</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>FAC+RAS+gRselect</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[4]Sheet1!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>78.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>78.400000000000006</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>81.84</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>81.13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>76.2</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>84.92</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -3843,11 +3754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194753664"/>
-        <c:axId val="194755200"/>
+        <c:axId val="210093184"/>
+        <c:axId val="210094720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194753664"/>
+        <c:axId val="210093184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194755200"/>
+        <c:crossAx val="210094720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3877,7 +3788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194755200"/>
+        <c:axId val="210094720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3924,7 +3835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194753664"/>
+        <c:crossAx val="210093184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4076,11 +3987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196418944"/>
-        <c:axId val="196420736"/>
+        <c:axId val="213724544"/>
+        <c:axId val="213726336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196418944"/>
+        <c:axId val="213724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +4013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196420736"/>
+        <c:crossAx val="213726336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4110,7 +4021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196420736"/>
+        <c:axId val="213726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4164,7 +4075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196418944"/>
+        <c:crossAx val="213724544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4233,45 +4144,39 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>[5]Sheet1!$A$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>BTB+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>FAC+RAS+bimodal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FAC+RAS+gshare</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FAC+RAS+gRselect</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>BTB+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>FAC+RAS+bimodal</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>FAC+RAS+gshare</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>FAC+RAS+gRselect</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>[5]Sheet1!$A$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.3400000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8699999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1172</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11219999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2.3400000000000001E-2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9.8699999999999996E-2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.1172</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.11219999999999999</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
         </c:ser>
         <c:dLbls>
@@ -4283,11 +4188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194763776"/>
-        <c:axId val="204346112"/>
+        <c:axId val="210103296"/>
+        <c:axId val="215941888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194763776"/>
+        <c:axId val="210103296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,7 +4214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204346112"/>
+        <c:crossAx val="215941888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4317,7 +4222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204346112"/>
+        <c:axId val="215941888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4342,7 +4247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194763776"/>
+        <c:crossAx val="210103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4612,11 +4517,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204437376"/>
-        <c:axId val="204438912"/>
+        <c:axId val="216356736"/>
+        <c:axId val="216358272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204437376"/>
+        <c:axId val="216356736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,7 +4543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204438912"/>
+        <c:crossAx val="216358272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4646,7 +4551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204438912"/>
+        <c:axId val="216358272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4692,7 +4597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204437376"/>
+        <c:crossAx val="216356736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4982,11 +4887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204080256"/>
-        <c:axId val="204081792"/>
+        <c:axId val="216007808"/>
+        <c:axId val="216009344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204080256"/>
+        <c:axId val="216007808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5008,7 +4913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204081792"/>
+        <c:crossAx val="216009344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5016,7 +4921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204081792"/>
+        <c:axId val="216009344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +4967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204080256"/>
+        <c:crossAx val="216007808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5209,11 +5114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196453120"/>
-        <c:axId val="196454656"/>
+        <c:axId val="213754624"/>
+        <c:axId val="213756160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196453120"/>
+        <c:axId val="213754624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5235,7 +5140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196454656"/>
+        <c:crossAx val="213756160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5243,7 +5148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196454656"/>
+        <c:axId val="213756160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5288,7 +5193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196453120"/>
+        <c:crossAx val="213754624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -5437,11 +5342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="196470656"/>
-        <c:axId val="196472192"/>
+        <c:axId val="213776256"/>
+        <c:axId val="213777792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196470656"/>
+        <c:axId val="213776256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5463,7 +5368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196472192"/>
+        <c:crossAx val="213777792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5471,7 +5376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196472192"/>
+        <c:axId val="213777792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5516,7 +5421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196470656"/>
+        <c:crossAx val="213776256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6087,11 +5992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="196015232"/>
-        <c:axId val="196016768"/>
+        <c:axId val="213831040"/>
+        <c:axId val="213845120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196015232"/>
+        <c:axId val="213831040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,7 +6018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196016768"/>
+        <c:crossAx val="213845120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6121,7 +6026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196016768"/>
+        <c:axId val="213845120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -6167,7 +6072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196015232"/>
+        <c:crossAx val="213831040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6766,11 +6671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="196535040"/>
-        <c:axId val="196536576"/>
+        <c:axId val="213900288"/>
+        <c:axId val="214635264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196535040"/>
+        <c:axId val="213900288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6779,7 +6684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196536576"/>
+        <c:crossAx val="214635264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6787,7 +6692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196536576"/>
+        <c:axId val="214635264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -6818,7 +6723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196535040"/>
+        <c:crossAx val="213900288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6997,11 +6902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197217280"/>
-        <c:axId val="197231360"/>
+        <c:axId val="214660608"/>
+        <c:axId val="214662144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197217280"/>
+        <c:axId val="214660608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7020,7 +6925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197231360"/>
+        <c:crossAx val="214662144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7028,7 +6933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197231360"/>
+        <c:axId val="214662144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -7068,7 +6973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197217280"/>
+        <c:crossAx val="214660608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7325,11 +7230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197268608"/>
-        <c:axId val="197270912"/>
+        <c:axId val="214686720"/>
+        <c:axId val="214967808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197268608"/>
+        <c:axId val="214686720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7373,7 +7278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197270912"/>
+        <c:crossAx val="214967808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7381,7 +7286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197270912"/>
+        <c:axId val="214967808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7427,7 +7332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197268608"/>
+        <c:crossAx val="214686720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7972,11 +7877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="197322624"/>
-        <c:axId val="197324160"/>
+        <c:axId val="215025152"/>
+        <c:axId val="215026688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197322624"/>
+        <c:axId val="215025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7995,7 +7900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197324160"/>
+        <c:crossAx val="215026688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8003,7 +7908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197324160"/>
+        <c:axId val="215026688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8039,7 +7944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197322624"/>
+        <c:crossAx val="215025152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11608,499 +11513,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>BTB-256 filtering</v>
-          </cell>
-          <cell r="B2">
-            <v>0.30320000000000003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>BTB-512</v>
-          </cell>
-          <cell r="B3">
-            <v>0.29809999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>BTB-1024</v>
-          </cell>
-          <cell r="B4">
-            <v>0.29380000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>BTB-PAC</v>
-          </cell>
-          <cell r="B5">
-            <v>0.80710000000000004</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BTB-FAC</v>
-          </cell>
-          <cell r="B6">
-            <v>0.90159999999999996</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>FAC</v>
-          </cell>
-          <cell r="B7">
-            <v>0.84470000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>FAC+RAS</v>
-          </cell>
-          <cell r="B8">
-            <v>0.93559999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Base</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>bimodal-256</v>
-          </cell>
-          <cell r="B2">
-            <v>0.17299999999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>bimodal-768</v>
-          </cell>
-          <cell r="B3">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>bimodal-4096</v>
-          </cell>
-          <cell r="B4">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>gshare-256</v>
-          </cell>
-          <cell r="B5">
-            <v>0.79</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>gshare-768</v>
-          </cell>
-          <cell r="B6">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>gshare-4096</v>
-          </cell>
-          <cell r="B7">
-            <v>0.82</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>gselect-768</v>
-          </cell>
-          <cell r="B8">
-            <v>0.83</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>gselect-4096</v>
-          </cell>
-          <cell r="B9">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>gRselect-768</v>
-          </cell>
-          <cell r="B10">
-            <v>0.79</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>gRselect-4096</v>
-          </cell>
-          <cell r="B11">
-            <v>0.79</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>fmax avg</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>dumP</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>dumS</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>area avg</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Base</v>
-          </cell>
-          <cell r="B2">
-            <v>353.42</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>BTB+bimodal</v>
-          </cell>
-          <cell r="B3">
-            <v>287.11</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>BTB+PAC+bimodal</v>
-          </cell>
-          <cell r="B4">
-            <v>265.52</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>BTB+FAC+bimodal</v>
-          </cell>
-          <cell r="B5">
-            <v>262.26</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>107.6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BTB+RAS+bimodal</v>
-          </cell>
-          <cell r="B6">
-            <v>277.33</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>FAC+bimodal</v>
-          </cell>
-          <cell r="B7">
-            <v>261.94</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>103.2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>FAC+RAS+bimodal</v>
-          </cell>
-          <cell r="B8">
-            <v>252.03</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>141.6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>FAC+RAS+gshare</v>
-          </cell>
-          <cell r="B9">
-            <v>232.65</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>154.4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>FAC+RAS+gselect</v>
-          </cell>
-          <cell r="B10">
-            <v>241.37</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>142.6</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>FAC+RAS+gRselect</v>
-          </cell>
-          <cell r="B11">
-            <v>243.13</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>151.4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>FAC+RAS+gRselect+PD</v>
-          </cell>
-          <cell r="B12">
-            <v>259.61</v>
-          </cell>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12">
-            <v>147.80000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Base</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>BTB+bimodal</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>FAC+RAS+Bimodal</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>FAC+RAS+gshare</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>FAC+RAS+gRselect</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>IPS</v>
-          </cell>
-          <cell r="B2">
-            <v>78.400000000000006</v>
-          </cell>
-          <cell r="C2">
-            <v>81.84</v>
-          </cell>
-          <cell r="D2">
-            <v>81.13</v>
-          </cell>
-          <cell r="E2">
-            <v>76.2</v>
-          </cell>
-          <cell r="F2">
-            <v>84.92</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>BTB+bimodal</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>FAC+RAS+bimodal</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>FAC+RAS+gshare</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>FAC+RAS+gRselect</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2.3400000000000001E-2</v>
-          </cell>
-          <cell r="B2">
-            <v>9.8699999999999996E-2</v>
-          </cell>
-          <cell r="C2">
-            <v>0.1172</v>
-          </cell>
-          <cell r="D2">
-            <v>0.11219999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14269,8 +13681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F21:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P123" sqref="P123"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14295,8 +13707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -358,11 +358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="207431936"/>
-        <c:axId val="207536128"/>
+        <c:axId val="186247808"/>
+        <c:axId val="188379520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207431936"/>
+        <c:axId val="186247808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207536128"/>
+        <c:crossAx val="188379520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -392,7 +392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207536128"/>
+        <c:axId val="188379520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207431936"/>
+        <c:crossAx val="186247808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -562,11 +562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215068672"/>
-        <c:axId val="215070208"/>
+        <c:axId val="194142592"/>
+        <c:axId val="194144128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215068672"/>
+        <c:axId val="194142592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215070208"/>
+        <c:crossAx val="194144128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215070208"/>
+        <c:axId val="194144128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -623,6 +623,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -642,7 +643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215068672"/>
+        <c:crossAx val="194142592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1214,11 +1215,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="214841600"/>
-        <c:axId val="214851584"/>
+        <c:axId val="195218048"/>
+        <c:axId val="194707840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214841600"/>
+        <c:axId val="195218048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214851584"/>
+        <c:crossAx val="194707840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214851584"/>
+        <c:axId val="194707840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,6 +1278,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1296,7 +1298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214841600"/>
+        <c:crossAx val="195218048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,8 +1522,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214892928"/>
-        <c:axId val="214894464"/>
+        <c:axId val="194753280"/>
+        <c:axId val="194754816"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1665,11 +1667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214898560"/>
-        <c:axId val="214896640"/>
+        <c:axId val="194763008"/>
+        <c:axId val="194761088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214892928"/>
+        <c:axId val="194753280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214894464"/>
+        <c:crossAx val="194754816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1699,7 +1701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214894464"/>
+        <c:axId val="194754816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,12 +1754,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214892928"/>
+        <c:crossAx val="194753280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214896640"/>
+        <c:axId val="194761088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1784,6 +1786,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1803,13 +1806,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214898560"/>
+        <c:crossAx val="194763008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="214898560"/>
+        <c:axId val="194763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="214896640"/>
+        <c:crossAx val="194761088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1986,11 +1989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214953984"/>
-        <c:axId val="214955520"/>
+        <c:axId val="194797952"/>
+        <c:axId val="194799488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214953984"/>
+        <c:axId val="194797952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214955520"/>
+        <c:crossAx val="194799488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2020,7 +2023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214955520"/>
+        <c:axId val="194799488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214953984"/>
+        <c:crossAx val="194797952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2231,11 +2234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215246720"/>
-        <c:axId val="215248896"/>
+        <c:axId val="195504384"/>
+        <c:axId val="195506560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215246720"/>
+        <c:axId val="195504384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,6 +2266,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2282,7 +2286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215248896"/>
+        <c:crossAx val="195506560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215248896"/>
+        <c:axId val="195506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,6 +2323,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2338,7 +2343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215246720"/>
+        <c:crossAx val="195504384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2480,11 +2485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215282048"/>
-        <c:axId val="215283584"/>
+        <c:axId val="195539712"/>
+        <c:axId val="195541248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215282048"/>
+        <c:axId val="195539712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215283584"/>
+        <c:crossAx val="195541248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215283584"/>
+        <c:axId val="195541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215282048"/>
+        <c:crossAx val="195539712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2690,11 +2695,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215566976"/>
-        <c:axId val="215585152"/>
+        <c:axId val="195234816"/>
+        <c:axId val="195240704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215566976"/>
+        <c:axId val="195234816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215585152"/>
+        <c:crossAx val="195240704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215585152"/>
+        <c:axId val="195240704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215566976"/>
+        <c:crossAx val="195234816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2907,11 +2912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209981824"/>
-        <c:axId val="209983360"/>
+        <c:axId val="195285760"/>
+        <c:axId val="195287296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209981824"/>
+        <c:axId val="195285760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209983360"/>
+        <c:crossAx val="195287296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2941,7 +2946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209983360"/>
+        <c:axId val="195287296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209981824"/>
+        <c:crossAx val="195285760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3222,8 +3227,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210028032"/>
-        <c:axId val="210029568"/>
+        <c:axId val="195336064"/>
+        <c:axId val="195337600"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3429,11 +3434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210050048"/>
-        <c:axId val="210048128"/>
+        <c:axId val="195341696"/>
+        <c:axId val="195339776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210028032"/>
+        <c:axId val="195336064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210029568"/>
+        <c:crossAx val="195337600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3463,7 +3468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210029568"/>
+        <c:axId val="195337600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3511,12 +3516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210028032"/>
+        <c:crossAx val="195336064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210048128"/>
+        <c:axId val="195339776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3573,12 +3578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210050048"/>
+        <c:crossAx val="195341696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="210050048"/>
+        <c:axId val="195341696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210048128"/>
+        <c:crossAx val="195339776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3754,11 +3759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210093184"/>
-        <c:axId val="210094720"/>
+        <c:axId val="195393024"/>
+        <c:axId val="195394560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210093184"/>
+        <c:axId val="195393024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3780,7 +3785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210094720"/>
+        <c:crossAx val="195394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3788,7 +3793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210094720"/>
+        <c:axId val="195394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3835,7 +3840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210093184"/>
+        <c:crossAx val="195393024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3987,11 +3992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213724544"/>
-        <c:axId val="213726336"/>
+        <c:axId val="188403712"/>
+        <c:axId val="188405248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213724544"/>
+        <c:axId val="188403712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213726336"/>
+        <c:crossAx val="188405248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4021,7 +4026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213726336"/>
+        <c:axId val="188405248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4075,7 +4080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213724544"/>
+        <c:crossAx val="188403712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4188,11 +4193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210103296"/>
-        <c:axId val="215941888"/>
+        <c:axId val="195411328"/>
+        <c:axId val="195417216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210103296"/>
+        <c:axId val="195411328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4214,7 +4219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215941888"/>
+        <c:crossAx val="195417216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4222,7 +4227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215941888"/>
+        <c:axId val="195417216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4247,7 +4252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210103296"/>
+        <c:crossAx val="195411328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4517,11 +4522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216356736"/>
-        <c:axId val="216358272"/>
+        <c:axId val="195680512"/>
+        <c:axId val="197005312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216356736"/>
+        <c:axId val="195680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,7 +4548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216358272"/>
+        <c:crossAx val="197005312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4551,7 +4556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216358272"/>
+        <c:axId val="197005312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +4582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4597,7 +4601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216356736"/>
+        <c:crossAx val="195680512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4887,11 +4891,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="216007808"/>
-        <c:axId val="216009344"/>
+        <c:axId val="197035520"/>
+        <c:axId val="197037056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="216007808"/>
+        <c:axId val="197035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216009344"/>
+        <c:crossAx val="197037056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4921,7 +4925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216009344"/>
+        <c:axId val="197037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,7 +4951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4967,7 +4970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216007808"/>
+        <c:crossAx val="197035520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5114,11 +5117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213754624"/>
-        <c:axId val="213756160"/>
+        <c:axId val="190592128"/>
+        <c:axId val="190593664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213754624"/>
+        <c:axId val="190592128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,7 +5143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213756160"/>
+        <c:crossAx val="190593664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5148,7 +5151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213756160"/>
+        <c:axId val="190593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5193,7 +5196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213754624"/>
+        <c:crossAx val="190592128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -5342,11 +5345,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="213776256"/>
-        <c:axId val="213777792"/>
+        <c:axId val="190630144"/>
+        <c:axId val="190631936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213776256"/>
+        <c:axId val="190630144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5368,7 +5371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213777792"/>
+        <c:crossAx val="190631936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5376,7 +5379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213777792"/>
+        <c:axId val="190631936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,7 +5424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213776256"/>
+        <c:crossAx val="190630144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -5992,11 +5995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="213831040"/>
-        <c:axId val="213845120"/>
+        <c:axId val="190674816"/>
+        <c:axId val="190676352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213831040"/>
+        <c:axId val="190674816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,7 +6021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213845120"/>
+        <c:crossAx val="190676352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6026,7 +6029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213845120"/>
+        <c:axId val="190676352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -6072,7 +6075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213831040"/>
+        <c:crossAx val="190674816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6671,11 +6674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="213900288"/>
-        <c:axId val="214635264"/>
+        <c:axId val="190747776"/>
+        <c:axId val="190749312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213900288"/>
+        <c:axId val="190747776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6684,7 +6687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214635264"/>
+        <c:crossAx val="190749312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6692,7 +6695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214635264"/>
+        <c:axId val="190749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -6717,13 +6720,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213900288"/>
+        <c:crossAx val="190747776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6902,11 +6906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214660608"/>
-        <c:axId val="214662144"/>
+        <c:axId val="193988096"/>
+        <c:axId val="193989632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214660608"/>
+        <c:axId val="193988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6925,7 +6929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214662144"/>
+        <c:crossAx val="193989632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6933,7 +6937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214662144"/>
+        <c:axId val="193989632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -6957,6 +6961,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6973,7 +6978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214660608"/>
+        <c:crossAx val="193988096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7230,11 +7235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214686720"/>
-        <c:axId val="214967808"/>
+        <c:axId val="194022784"/>
+        <c:axId val="194037632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214686720"/>
+        <c:axId val="194022784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,6 +7264,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7278,7 +7284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214967808"/>
+        <c:crossAx val="194037632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7286,7 +7292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214967808"/>
+        <c:axId val="194037632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7313,6 +7319,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7332,13 +7339,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214686720"/>
+        <c:crossAx val="194022784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7877,11 +7885,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="215025152"/>
-        <c:axId val="215026688"/>
+        <c:axId val="194103168"/>
+        <c:axId val="194104704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215025152"/>
+        <c:axId val="194103168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7900,7 +7908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215026688"/>
+        <c:crossAx val="194104704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7908,7 +7916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215026688"/>
+        <c:axId val="194104704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -7938,13 +7946,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215025152"/>
+        <c:crossAx val="194103168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9020,8 +9029,8 @@
       <xdr:rowOff>124557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>565641</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>5496</xdr:rowOff>
     </xdr:to>
@@ -12271,8 +12280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13269,8 +13278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13681,8 +13690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F21:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="MPKI" sheetId="3" r:id="rId3"/>
     <sheet name="min" sheetId="4" r:id="rId4"/>
     <sheet name="vs" sheetId="5" r:id="rId5"/>
+    <sheet name="Presentation" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
   <si>
     <t>1KB</t>
   </si>
@@ -358,11 +359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186247808"/>
-        <c:axId val="188379520"/>
+        <c:axId val="187370112"/>
+        <c:axId val="187392384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186247808"/>
+        <c:axId val="187370112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188379520"/>
+        <c:crossAx val="187392384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -392,7 +393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188379520"/>
+        <c:axId val="187392384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186247808"/>
+        <c:crossAx val="187370112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -562,11 +563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194142592"/>
-        <c:axId val="194144128"/>
+        <c:axId val="189416192"/>
+        <c:axId val="189417728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194142592"/>
+        <c:axId val="189416192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194144128"/>
+        <c:crossAx val="189417728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -596,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194144128"/>
+        <c:axId val="189417728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -643,7 +644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194142592"/>
+        <c:crossAx val="189416192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1215,11 +1216,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="195218048"/>
-        <c:axId val="194707840"/>
+        <c:axId val="189508224"/>
+        <c:axId val="189526400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195218048"/>
+        <c:axId val="189508224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194707840"/>
+        <c:crossAx val="189526400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194707840"/>
+        <c:axId val="189526400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195218048"/>
+        <c:crossAx val="189508224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,8 +1523,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194753280"/>
-        <c:axId val="194754816"/>
+        <c:axId val="189448960"/>
+        <c:axId val="189450496"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1667,11 +1668,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194763008"/>
-        <c:axId val="194761088"/>
+        <c:axId val="189462784"/>
+        <c:axId val="189460864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194753280"/>
+        <c:axId val="189448960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194754816"/>
+        <c:crossAx val="189450496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1701,7 +1702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194754816"/>
+        <c:axId val="189450496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,12 +1755,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194753280"/>
+        <c:crossAx val="189448960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194761088"/>
+        <c:axId val="189460864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1806,13 +1807,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194763008"/>
+        <c:crossAx val="189462784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="194763008"/>
+        <c:axId val="189462784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="194761088"/>
+        <c:crossAx val="189460864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,11 +1990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="194797952"/>
-        <c:axId val="194799488"/>
+        <c:axId val="188965248"/>
+        <c:axId val="188966784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194797952"/>
+        <c:axId val="188965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194799488"/>
+        <c:crossAx val="188966784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194799488"/>
+        <c:axId val="188966784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194797952"/>
+        <c:crossAx val="188965248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,11 +2235,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195504384"/>
-        <c:axId val="195506560"/>
+        <c:axId val="189794560"/>
+        <c:axId val="189800832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195504384"/>
+        <c:axId val="189794560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195506560"/>
+        <c:crossAx val="189800832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2294,7 +2295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195506560"/>
+        <c:axId val="189800832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195504384"/>
+        <c:crossAx val="189794560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2485,11 +2486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195539712"/>
-        <c:axId val="195541248"/>
+        <c:axId val="189821696"/>
+        <c:axId val="189823232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195539712"/>
+        <c:axId val="189821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195541248"/>
+        <c:crossAx val="189823232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2519,7 +2520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195541248"/>
+        <c:axId val="189823232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,6 +2546,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2564,7 +2566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195539712"/>
+        <c:crossAx val="189821696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2695,11 +2697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195234816"/>
-        <c:axId val="195240704"/>
+        <c:axId val="189844480"/>
+        <c:axId val="189936384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195234816"/>
+        <c:axId val="189844480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,7 +2723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195240704"/>
+        <c:crossAx val="189936384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2729,7 +2731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195240704"/>
+        <c:axId val="189936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195234816"/>
+        <c:crossAx val="189844480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2912,11 +2914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195285760"/>
-        <c:axId val="195287296"/>
+        <c:axId val="189965056"/>
+        <c:axId val="189966592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195285760"/>
+        <c:axId val="189965056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +2940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195287296"/>
+        <c:crossAx val="189966592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2946,7 +2948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195287296"/>
+        <c:axId val="189966592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +2972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195285760"/>
+        <c:crossAx val="189965056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,8 +3229,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195336064"/>
-        <c:axId val="195337600"/>
+        <c:axId val="190285696"/>
+        <c:axId val="190287232"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3434,11 +3436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195341696"/>
-        <c:axId val="195339776"/>
+        <c:axId val="190295424"/>
+        <c:axId val="190293504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195336064"/>
+        <c:axId val="190285696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195337600"/>
+        <c:crossAx val="190287232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3468,7 +3470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195337600"/>
+        <c:axId val="190287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3496,7 +3498,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3516,12 +3517,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195336064"/>
+        <c:crossAx val="190285696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195339776"/>
+        <c:axId val="190293504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3558,7 +3559,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3578,12 +3578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195341696"/>
+        <c:crossAx val="190295424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="195341696"/>
+        <c:axId val="190295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195339776"/>
+        <c:crossAx val="190293504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3759,11 +3759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195393024"/>
-        <c:axId val="195394560"/>
+        <c:axId val="190350848"/>
+        <c:axId val="190352384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195393024"/>
+        <c:axId val="190350848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +3785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195394560"/>
+        <c:crossAx val="190352384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3793,7 +3793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195394560"/>
+        <c:axId val="190352384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3820,7 +3820,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3840,7 +3839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195393024"/>
+        <c:crossAx val="190350848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3992,11 +3991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188403712"/>
-        <c:axId val="188405248"/>
+        <c:axId val="187416576"/>
+        <c:axId val="187418112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188403712"/>
+        <c:axId val="187416576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,7 +4017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188405248"/>
+        <c:crossAx val="187418112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4026,7 +4025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188405248"/>
+        <c:axId val="187418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4080,7 +4079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188403712"/>
+        <c:crossAx val="187416576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4193,11 +4192,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195411328"/>
-        <c:axId val="195417216"/>
+        <c:axId val="190365056"/>
+        <c:axId val="190366848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195411328"/>
+        <c:axId val="190365056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,7 +4218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195417216"/>
+        <c:crossAx val="190366848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4227,7 +4226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195417216"/>
+        <c:axId val="190366848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4252,7 +4251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195411328"/>
+        <c:crossAx val="190365056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4522,11 +4521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195680512"/>
-        <c:axId val="197005312"/>
+        <c:axId val="190511360"/>
+        <c:axId val="189538304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195680512"/>
+        <c:axId val="190511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197005312"/>
+        <c:crossAx val="189538304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4556,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197005312"/>
+        <c:axId val="189538304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,6 +4581,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4601,7 +4601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195680512"/>
+        <c:crossAx val="190511360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4891,11 +4891,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197035520"/>
-        <c:axId val="197037056"/>
+        <c:axId val="189588992"/>
+        <c:axId val="189590528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197035520"/>
+        <c:axId val="189588992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4917,7 +4917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197037056"/>
+        <c:crossAx val="189590528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4925,7 +4925,612 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197037056"/>
+        <c:axId val="189590528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189588992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6171579145510786"/>
+          <c:y val="6.4387632296900685E-2"/>
+          <c:w val="0.3077999548433028"/>
+          <c:h val="8.7867359783321469E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17124467396120938"/>
+          <c:y val="4.1691056910569103E-2"/>
+          <c:w val="0.80494580222926682"/>
+          <c:h val="0.85882926829268291"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.6754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.963800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.660500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8396000000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GShare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.158200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.3308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.7309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.1152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8455999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$B$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.036799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.407299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.189900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.980600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.635199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="214503808"/>
+        <c:axId val="214505344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="214503808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214505344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214505344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>MPKI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214503808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22462423447069119"/>
+          <c:y val="2.7777777777777776E-2"/>
+          <c:w val="0.53523570917271701"/>
+          <c:h val="6.2685871583125274E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IPC!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>IPC!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Single-Cycle TAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O-TAGE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Single-Cycle TAGE-SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IPC!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32941999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="188294272"/>
+        <c:axId val="188295808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="188294272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188295808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188295808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4970,233 +5575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197035520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.6171579145510786"/>
-          <c:y val="6.4387632296900685E-2"/>
-          <c:w val="0.3077999548433028"/>
-          <c:h val="8.7867359783321469E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>IPC!$B$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IPC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>IPC!$A$35:$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Single-Cycle TAGE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>O-TAGE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Single-Cycle TAGE-SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>O-TAGE-SC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>IPC!$B$35:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.3296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32440000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32941999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="190592128"/>
-        <c:axId val="190593664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="190592128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="190593664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="190593664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>IPC</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="190592128"/>
+        <c:crossAx val="188294272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -5345,11 +5724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190630144"/>
-        <c:axId val="190631936"/>
+        <c:axId val="188338176"/>
+        <c:axId val="188339712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190630144"/>
+        <c:axId val="188338176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5371,7 +5750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190631936"/>
+        <c:crossAx val="188339712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5379,7 +5758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190631936"/>
+        <c:axId val="188339712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190630144"/>
+        <c:crossAx val="188338176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -5995,11 +6374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="190674816"/>
-        <c:axId val="190676352"/>
+        <c:axId val="188381056"/>
+        <c:axId val="188382592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190674816"/>
+        <c:axId val="188381056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6021,7 +6400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190676352"/>
+        <c:crossAx val="188382592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6029,7 +6408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190676352"/>
+        <c:axId val="188382592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -6075,7 +6454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190674816"/>
+        <c:crossAx val="188381056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6674,11 +7053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="190747776"/>
-        <c:axId val="190749312"/>
+        <c:axId val="188060800"/>
+        <c:axId val="188062336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190747776"/>
+        <c:axId val="188060800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,7 +7066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190749312"/>
+        <c:crossAx val="188062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6695,7 +7074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190749312"/>
+        <c:axId val="188062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -6720,14 +7099,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190747776"/>
+        <c:crossAx val="188060800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6906,11 +7284,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193988096"/>
-        <c:axId val="193989632"/>
+        <c:axId val="188087680"/>
+        <c:axId val="188175488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193988096"/>
+        <c:axId val="188087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6929,7 +7307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193989632"/>
+        <c:crossAx val="188175488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6937,7 +7315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193989632"/>
+        <c:axId val="188175488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -6961,7 +7339,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6978,7 +7355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193988096"/>
+        <c:crossAx val="188087680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7235,11 +7612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194022784"/>
-        <c:axId val="194037632"/>
+        <c:axId val="188204544"/>
+        <c:axId val="188207104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194022784"/>
+        <c:axId val="188204544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7284,7 +7661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194037632"/>
+        <c:crossAx val="188207104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7292,7 +7669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194037632"/>
+        <c:axId val="188207104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7339,7 +7716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194022784"/>
+        <c:crossAx val="188204544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7885,11 +8262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="194103168"/>
-        <c:axId val="194104704"/>
+        <c:axId val="189315328"/>
+        <c:axId val="189325312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194103168"/>
+        <c:axId val="189315328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7908,7 +8285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194104704"/>
+        <c:crossAx val="189325312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7916,7 +8293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194104704"/>
+        <c:axId val="189325312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -7953,7 +8330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194103168"/>
+        <c:crossAx val="189315328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10514,6 +10891,193 @@
         </a:fontRef>
       </cdr:style>
     </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05052</cdr:x>
+      <cdr:y>0.33171</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.05052</cdr:x>
+      <cdr:y>0.55495</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="296400" y="1295400"/>
+          <a:ext cx="0" cy="871825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01353</cdr:x>
+      <cdr:y>0.50081</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08022</cdr:x>
+      <cdr:y>0.69157</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="79375" y="1955800"/>
+          <a:ext cx="391327" cy="744972"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="eaVert" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>better</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -12280,8 +12844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13279,7 +13843,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14007,4 +14571,114 @@
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>12.6754</v>
+      </c>
+      <c r="C4">
+        <v>11.963800000000001</v>
+      </c>
+      <c r="D4">
+        <v>11.425000000000001</v>
+      </c>
+      <c r="E4">
+        <v>10.660500000000001</v>
+      </c>
+      <c r="F4">
+        <v>10.4094</v>
+      </c>
+      <c r="G4">
+        <v>9.8396000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>12.158200000000001</v>
+      </c>
+      <c r="C5">
+        <v>11.3308</v>
+      </c>
+      <c r="D5">
+        <v>10.7309</v>
+      </c>
+      <c r="E5">
+        <v>10.3986</v>
+      </c>
+      <c r="F5">
+        <v>10.1152</v>
+      </c>
+      <c r="G5">
+        <v>9.8455999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>19.036799999999999</v>
+      </c>
+      <c r="C6">
+        <v>16.407299999999999</v>
+      </c>
+      <c r="D6">
+        <v>16.189900000000002</v>
+      </c>
+      <c r="E6">
+        <v>15.980600000000001</v>
+      </c>
+      <c r="F6">
+        <v>15.837</v>
+      </c>
+      <c r="G6">
+        <v>15.635199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -359,11 +359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187370112"/>
-        <c:axId val="187392384"/>
+        <c:axId val="140114944"/>
+        <c:axId val="141853440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187370112"/>
+        <c:axId val="140114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187392384"/>
+        <c:crossAx val="141853440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -393,7 +393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187392384"/>
+        <c:axId val="141853440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,6 +419,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -438,7 +439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187370112"/>
+        <c:crossAx val="140114944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -563,11 +564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189416192"/>
-        <c:axId val="189417728"/>
+        <c:axId val="155013888"/>
+        <c:axId val="155015424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189416192"/>
+        <c:axId val="155013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189417728"/>
+        <c:crossAx val="155015424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189417728"/>
+        <c:axId val="155015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -644,7 +645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189416192"/>
+        <c:crossAx val="155013888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1216,11 +1217,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="189508224"/>
-        <c:axId val="189526400"/>
+        <c:axId val="155503616"/>
+        <c:axId val="155517696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189508224"/>
+        <c:axId val="155503616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189526400"/>
+        <c:crossAx val="155517696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189526400"/>
+        <c:axId val="155517696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1280,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1299,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189508224"/>
+        <c:crossAx val="155503616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1523,8 +1523,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189448960"/>
-        <c:axId val="189450496"/>
+        <c:axId val="155567232"/>
+        <c:axId val="155568768"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1668,11 +1668,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189462784"/>
-        <c:axId val="189460864"/>
+        <c:axId val="155576960"/>
+        <c:axId val="155575040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189448960"/>
+        <c:axId val="155567232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189450496"/>
+        <c:crossAx val="155568768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1702,7 +1702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189450496"/>
+        <c:axId val="155568768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,12 +1755,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189448960"/>
+        <c:crossAx val="155567232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189460864"/>
+        <c:axId val="155575040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1787,7 +1787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1807,13 +1806,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189462784"/>
+        <c:crossAx val="155576960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="189462784"/>
+        <c:axId val="155576960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="189460864"/>
+        <c:crossAx val="155575040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,11 +1989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188965248"/>
-        <c:axId val="188966784"/>
+        <c:axId val="156074752"/>
+        <c:axId val="156076288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188965248"/>
+        <c:axId val="156074752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,7 +2015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188966784"/>
+        <c:crossAx val="156076288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2024,7 +2023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188966784"/>
+        <c:axId val="156076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188965248"/>
+        <c:crossAx val="156074752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,11 +2234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189794560"/>
-        <c:axId val="189800832"/>
+        <c:axId val="156113536"/>
+        <c:axId val="156115712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189794560"/>
+        <c:axId val="156113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2287,7 +2285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189800832"/>
+        <c:crossAx val="156115712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2295,7 +2293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189800832"/>
+        <c:axId val="156115712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2322,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2344,7 +2341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189794560"/>
+        <c:crossAx val="156113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,11 +2483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189821696"/>
-        <c:axId val="189823232"/>
+        <c:axId val="156148864"/>
+        <c:axId val="156150400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189821696"/>
+        <c:axId val="156148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189823232"/>
+        <c:crossAx val="156150400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2520,7 +2517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189823232"/>
+        <c:axId val="156150400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2543,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2566,7 +2562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189821696"/>
+        <c:crossAx val="156148864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2697,11 +2693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189844480"/>
-        <c:axId val="189936384"/>
+        <c:axId val="157289856"/>
+        <c:axId val="157295744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189844480"/>
+        <c:axId val="157289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189936384"/>
+        <c:crossAx val="157295744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189936384"/>
+        <c:axId val="157295744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,7 +2751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189844480"/>
+        <c:crossAx val="157289856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2914,11 +2910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189965056"/>
-        <c:axId val="189966592"/>
+        <c:axId val="157332608"/>
+        <c:axId val="157334144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189965056"/>
+        <c:axId val="157332608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,7 +2936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189966592"/>
+        <c:crossAx val="157334144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2948,7 +2944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189966592"/>
+        <c:axId val="157334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +2968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189965056"/>
+        <c:crossAx val="157332608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3229,8 +3225,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190285696"/>
-        <c:axId val="190287232"/>
+        <c:axId val="158431488"/>
+        <c:axId val="158441472"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3436,11 +3432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190295424"/>
-        <c:axId val="190293504"/>
+        <c:axId val="158457856"/>
+        <c:axId val="158443392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190285696"/>
+        <c:axId val="158431488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,7 +3458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190287232"/>
+        <c:crossAx val="158441472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3470,7 +3466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190287232"/>
+        <c:axId val="158441472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3517,12 +3513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190285696"/>
+        <c:crossAx val="158431488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190293504"/>
+        <c:axId val="158443392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3578,12 +3574,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190295424"/>
+        <c:crossAx val="158457856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="190295424"/>
+        <c:axId val="158457856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190293504"/>
+        <c:crossAx val="158443392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3759,11 +3755,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190350848"/>
-        <c:axId val="190352384"/>
+        <c:axId val="187590528"/>
+        <c:axId val="187592064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190350848"/>
+        <c:axId val="187590528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +3781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190352384"/>
+        <c:crossAx val="187592064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3793,7 +3789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190352384"/>
+        <c:axId val="187592064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3820,6 +3816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3839,7 +3836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190350848"/>
+        <c:crossAx val="187590528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3991,11 +3988,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187416576"/>
-        <c:axId val="187418112"/>
+        <c:axId val="142938496"/>
+        <c:axId val="142940032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187416576"/>
+        <c:axId val="142938496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4017,7 +4014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187418112"/>
+        <c:crossAx val="142940032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4025,7 +4022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187418112"/>
+        <c:axId val="142940032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4079,7 +4076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187416576"/>
+        <c:crossAx val="142938496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4192,11 +4189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190365056"/>
-        <c:axId val="190366848"/>
+        <c:axId val="187617280"/>
+        <c:axId val="187618816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190365056"/>
+        <c:axId val="187617280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,7 +4215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190366848"/>
+        <c:crossAx val="187618816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4226,7 +4223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190366848"/>
+        <c:axId val="187618816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4251,7 +4248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190365056"/>
+        <c:crossAx val="187617280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4521,11 +4518,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190511360"/>
-        <c:axId val="189538304"/>
+        <c:axId val="155785856"/>
+        <c:axId val="155787648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190511360"/>
+        <c:axId val="155785856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189538304"/>
+        <c:crossAx val="155787648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4555,7 +4552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189538304"/>
+        <c:axId val="155787648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4581,7 +4578,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4601,7 +4597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190511360"/>
+        <c:crossAx val="155785856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4891,11 +4887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189588992"/>
-        <c:axId val="189590528"/>
+        <c:axId val="187709312"/>
+        <c:axId val="187710848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189588992"/>
+        <c:axId val="187709312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4917,7 +4913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189590528"/>
+        <c:crossAx val="187710848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4925,7 +4921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189590528"/>
+        <c:axId val="187710848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,7 +4947,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4971,7 +4966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189588992"/>
+        <c:crossAx val="187709312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5268,11 +5263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214503808"/>
-        <c:axId val="214505344"/>
+        <c:axId val="155879680"/>
+        <c:axId val="155897856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214503808"/>
+        <c:axId val="155879680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5294,7 +5289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214505344"/>
+        <c:crossAx val="155897856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5302,7 +5297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214505344"/>
+        <c:axId val="155897856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5349,7 +5344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214503808"/>
+        <c:crossAx val="155879680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5496,11 +5491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188294272"/>
-        <c:axId val="188295808"/>
+        <c:axId val="142947840"/>
+        <c:axId val="142949376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188294272"/>
+        <c:axId val="142947840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5522,7 +5517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188295808"/>
+        <c:crossAx val="142949376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5530,7 +5525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188295808"/>
+        <c:axId val="142949376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5556,6 +5551,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5575,7 +5571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188294272"/>
+        <c:crossAx val="142947840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -5724,11 +5720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188338176"/>
-        <c:axId val="188339712"/>
+        <c:axId val="142985856"/>
+        <c:axId val="142987648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188338176"/>
+        <c:axId val="142985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5750,7 +5746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188339712"/>
+        <c:crossAx val="142987648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5758,7 +5754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188339712"/>
+        <c:axId val="142987648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5784,6 +5780,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5803,7 +5800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188338176"/>
+        <c:crossAx val="142985856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6374,11 +6371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="188381056"/>
-        <c:axId val="188382592"/>
+        <c:axId val="143042432"/>
+        <c:axId val="143043968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188381056"/>
+        <c:axId val="143042432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6400,7 +6397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188382592"/>
+        <c:crossAx val="143043968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6408,7 +6405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188382592"/>
+        <c:axId val="143043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -6435,6 +6432,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6454,7 +6452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188381056"/>
+        <c:crossAx val="143042432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -7053,11 +7051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="188060800"/>
-        <c:axId val="188062336"/>
+        <c:axId val="143105408"/>
+        <c:axId val="143111296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188060800"/>
+        <c:axId val="143105408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,7 +7064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188062336"/>
+        <c:crossAx val="143111296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7074,7 +7072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188062336"/>
+        <c:axId val="143111296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -7099,13 +7097,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188060800"/>
+        <c:crossAx val="143105408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7284,11 +7283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188087680"/>
-        <c:axId val="188175488"/>
+        <c:axId val="154867584"/>
+        <c:axId val="154869120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188087680"/>
+        <c:axId val="154867584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7307,7 +7306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188175488"/>
+        <c:crossAx val="154869120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7315,7 +7314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188175488"/>
+        <c:axId val="154869120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -7339,6 +7338,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7355,7 +7355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188087680"/>
+        <c:crossAx val="154867584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7612,11 +7612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188204544"/>
-        <c:axId val="188207104"/>
+        <c:axId val="154918912"/>
+        <c:axId val="154921216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188204544"/>
+        <c:axId val="154918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7661,7 +7661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188207104"/>
+        <c:crossAx val="154921216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7669,7 +7669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188207104"/>
+        <c:axId val="154921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7716,7 +7716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188204544"/>
+        <c:crossAx val="154918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8262,11 +8262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="189315328"/>
-        <c:axId val="189325312"/>
+        <c:axId val="154990848"/>
+        <c:axId val="154996736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189315328"/>
+        <c:axId val="154990848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,7 +8285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189325312"/>
+        <c:crossAx val="154996736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8293,7 +8293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189325312"/>
+        <c:axId val="154996736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8330,7 +8330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189315328"/>
+        <c:crossAx val="154990848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12377,8 +12377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,8 +12844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14577,7 +14577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
   <si>
     <t>1KB</t>
   </si>
@@ -182,6 +182,90 @@
   <si>
     <t>gRselect 1KB</t>
   </si>
+  <si>
+    <t>BTB-0</t>
+  </si>
+  <si>
+    <t>BTB-1</t>
+  </si>
+  <si>
+    <t>BTB-2</t>
+  </si>
+  <si>
+    <t>BTB-3</t>
+  </si>
+  <si>
+    <t>BTB-4</t>
+  </si>
+  <si>
+    <t>Address Misses</t>
+  </si>
+  <si>
+    <t>BTB-512</t>
+  </si>
+  <si>
+    <t>BTB-1024</t>
+  </si>
+  <si>
+    <t>BTB+RAS</t>
+  </si>
+  <si>
+    <t>FAC+RAS</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>BTB-256</t>
+  </si>
+  <si>
+    <t>BTB-PAC</t>
+  </si>
+  <si>
+    <t>BTB-FAC</t>
+  </si>
+  <si>
+    <t>BTB-1024+RAS+FAC</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Configs</t>
+  </si>
+  <si>
+    <t>fmax avg</t>
+  </si>
+  <si>
+    <t>dumP</t>
+  </si>
+  <si>
+    <t>dumS</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BTB-1024 +RAS +FAC</t>
+  </si>
+  <si>
+    <t>BTB+ bimodal</t>
+  </si>
+  <si>
+    <t>FAC+RAS+ bimodal</t>
+  </si>
+  <si>
+    <t>FAC+RAS+ gselect</t>
+  </si>
+  <si>
+    <t>FAC+RAS+ gshare</t>
+  </si>
+  <si>
+    <t>FAC+RAS+ gRselect</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +276,7 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +290,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,12 +319,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,11 +451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140114944"/>
-        <c:axId val="141853440"/>
+        <c:axId val="110038016"/>
+        <c:axId val="110072576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140114944"/>
+        <c:axId val="110038016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141853440"/>
+        <c:crossAx val="110072576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -393,7 +485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141853440"/>
+        <c:axId val="110072576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +511,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -439,7 +530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140114944"/>
+        <c:crossAx val="110038016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -564,11 +655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155013888"/>
-        <c:axId val="155015424"/>
+        <c:axId val="114385664"/>
+        <c:axId val="114387200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155013888"/>
+        <c:axId val="114385664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155015424"/>
+        <c:crossAx val="114387200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155015424"/>
+        <c:axId val="114387200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -625,7 +716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -645,7 +735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155013888"/>
+        <c:crossAx val="114385664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1217,11 +1307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="155503616"/>
-        <c:axId val="155517696"/>
+        <c:axId val="117435392"/>
+        <c:axId val="114168576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155503616"/>
+        <c:axId val="117435392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155517696"/>
+        <c:crossAx val="114168576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,7 +1341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155517696"/>
+        <c:axId val="114168576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155503616"/>
+        <c:crossAx val="117435392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1523,8 +1613,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155567232"/>
-        <c:axId val="155568768"/>
+        <c:axId val="117380224"/>
+        <c:axId val="117381760"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1668,11 +1758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155576960"/>
-        <c:axId val="155575040"/>
+        <c:axId val="117389952"/>
+        <c:axId val="117388032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155567232"/>
+        <c:axId val="117380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155568768"/>
+        <c:crossAx val="117381760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1702,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155568768"/>
+        <c:axId val="117381760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,12 +1845,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155567232"/>
+        <c:crossAx val="117380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155575040"/>
+        <c:axId val="117388032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1806,13 +1896,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155576960"/>
+        <c:crossAx val="117389952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155576960"/>
+        <c:axId val="117389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="155575040"/>
+        <c:crossAx val="117388032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,11 +2079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156074752"/>
-        <c:axId val="156076288"/>
+        <c:axId val="114266880"/>
+        <c:axId val="114268416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156074752"/>
+        <c:axId val="114266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156076288"/>
+        <c:crossAx val="114268416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156076288"/>
+        <c:axId val="114268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156074752"/>
+        <c:crossAx val="114266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,11 +2324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156113536"/>
-        <c:axId val="156115712"/>
+        <c:axId val="117451392"/>
+        <c:axId val="117453568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156113536"/>
+        <c:axId val="117451392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156115712"/>
+        <c:crossAx val="117453568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2293,7 +2383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156115712"/>
+        <c:axId val="117453568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,7 +2431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156113536"/>
+        <c:crossAx val="117451392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,11 +2573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156148864"/>
-        <c:axId val="156150400"/>
+        <c:axId val="117482624"/>
+        <c:axId val="117484160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156148864"/>
+        <c:axId val="117482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156150400"/>
+        <c:crossAx val="117484160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2517,7 +2607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156150400"/>
+        <c:axId val="117484160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,7 +2652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156148864"/>
+        <c:crossAx val="117482624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,11 +2783,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157289856"/>
-        <c:axId val="157295744"/>
+        <c:axId val="117505408"/>
+        <c:axId val="118371456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157289856"/>
+        <c:axId val="117505408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157295744"/>
+        <c:crossAx val="118371456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157295744"/>
+        <c:axId val="118371456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157289856"/>
+        <c:crossAx val="117505408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2910,11 +3000,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157332608"/>
-        <c:axId val="157334144"/>
+        <c:axId val="118412416"/>
+        <c:axId val="118413952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157332608"/>
+        <c:axId val="118412416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +3026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157334144"/>
+        <c:crossAx val="118413952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2944,7 +3034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157334144"/>
+        <c:axId val="118413952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +3058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157332608"/>
+        <c:crossAx val="118412416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3225,8 +3315,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158431488"/>
-        <c:axId val="158441472"/>
+        <c:axId val="118454528"/>
+        <c:axId val="118464512"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3432,11 +3522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158457856"/>
-        <c:axId val="158443392"/>
+        <c:axId val="118480896"/>
+        <c:axId val="118466432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158431488"/>
+        <c:axId val="118454528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158441472"/>
+        <c:crossAx val="118464512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3466,7 +3556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158441472"/>
+        <c:axId val="118464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3513,12 +3603,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158431488"/>
+        <c:crossAx val="118454528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158443392"/>
+        <c:axId val="118466432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3574,12 +3664,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158457856"/>
+        <c:crossAx val="118480896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="158457856"/>
+        <c:axId val="118480896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3588,7 +3678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158443392"/>
+        <c:crossAx val="118466432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3755,11 +3845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187590528"/>
-        <c:axId val="187592064"/>
+        <c:axId val="118585216"/>
+        <c:axId val="118586752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187590528"/>
+        <c:axId val="118585216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187592064"/>
+        <c:crossAx val="118586752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3789,7 +3879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187592064"/>
+        <c:axId val="118586752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3816,7 +3906,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3836,7 +3925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187590528"/>
+        <c:crossAx val="118585216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,11 +4077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142938496"/>
-        <c:axId val="142940032"/>
+        <c:axId val="110432640"/>
+        <c:axId val="110434176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142938496"/>
+        <c:axId val="110432640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4014,7 +4103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142940032"/>
+        <c:crossAx val="110434176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4022,7 +4111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142940032"/>
+        <c:axId val="110434176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4076,7 +4165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142938496"/>
+        <c:crossAx val="110432640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4189,11 +4278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187617280"/>
-        <c:axId val="187618816"/>
+        <c:axId val="118611968"/>
+        <c:axId val="118613504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187617280"/>
+        <c:axId val="118611968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,7 +4304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187618816"/>
+        <c:crossAx val="118613504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4223,7 +4312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187618816"/>
+        <c:axId val="118613504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4248,7 +4337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187617280"/>
+        <c:crossAx val="118611968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4518,11 +4607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155785856"/>
-        <c:axId val="155787648"/>
+        <c:axId val="118106752"/>
+        <c:axId val="118108544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155785856"/>
+        <c:axId val="118106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +4633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155787648"/>
+        <c:crossAx val="118108544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4552,7 +4641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155787648"/>
+        <c:axId val="118108544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155785856"/>
+        <c:crossAx val="118106752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4887,11 +4976,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187709312"/>
-        <c:axId val="187710848"/>
+        <c:axId val="118638464"/>
+        <c:axId val="118640000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187709312"/>
+        <c:axId val="118638464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +5002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187710848"/>
+        <c:crossAx val="118640000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4921,7 +5010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187710848"/>
+        <c:axId val="118640000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4966,7 +5055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187709312"/>
+        <c:crossAx val="118638464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5263,11 +5352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155879680"/>
-        <c:axId val="155897856"/>
+        <c:axId val="109582592"/>
+        <c:axId val="109600768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155879680"/>
+        <c:axId val="109582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,7 +5378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155897856"/>
+        <c:crossAx val="109600768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5297,7 +5386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155897856"/>
+        <c:axId val="109600768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5344,7 +5433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155879680"/>
+        <c:crossAx val="109582592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5391,6 +5480,572 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fmax avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAC+RAS+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FAC+RAS+ gselect</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAC+RAS+ gshare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+RAS+ gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$56:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>353.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dumP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAC+RAS+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FAC+RAS+ gselect</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAC+RAS+ gshare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+RAS+ gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$C$56:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="109638016"/>
+        <c:axId val="109639552"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dumS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAC+RAS+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FAC+RAS+ gselect</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAC+RAS+ gshare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+RAS+ gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$D$56:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FAC+RAS+ bimodal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FAC+RAS+ gselect</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FAC+RAS+ gshare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC+RAS+ gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$E$56:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32550000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="117376128"/>
+        <c:axId val="109641088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="109638016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109639552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="109639552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109638016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109641088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117376128"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="117376128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109641088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$C$27:$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BTB-256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BTB-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BTB-1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTB-PAC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTB-FAC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FAC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FAC+RAS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BTB-1024 +RAS +FAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$C$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.30320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98588946947027678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="118646272"/>
+        <c:axId val="118647808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118646272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118647808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118647808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118646272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5491,11 +6146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142947840"/>
-        <c:axId val="142949376"/>
+        <c:axId val="110441984"/>
+        <c:axId val="110443520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142947840"/>
+        <c:axId val="110441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5517,7 +6172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142949376"/>
+        <c:crossAx val="110443520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5525,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142949376"/>
+        <c:axId val="110443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5551,7 +6206,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5571,7 +6225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142947840"/>
+        <c:crossAx val="110441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -5720,11 +6374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142985856"/>
-        <c:axId val="142987648"/>
+        <c:axId val="110484096"/>
+        <c:axId val="110485888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142985856"/>
+        <c:axId val="110484096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +6400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142987648"/>
+        <c:crossAx val="110485888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5754,7 +6408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142987648"/>
+        <c:axId val="110485888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5780,7 +6434,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5800,7 +6453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142985856"/>
+        <c:crossAx val="110484096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -6371,11 +7024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="143042432"/>
-        <c:axId val="143043968"/>
+        <c:axId val="110412160"/>
+        <c:axId val="110413696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143042432"/>
+        <c:axId val="110412160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6397,7 +7050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143043968"/>
+        <c:crossAx val="110413696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6405,7 +7058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143043968"/>
+        <c:axId val="110413696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -6432,7 +7085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6452,7 +7104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143042432"/>
+        <c:crossAx val="110412160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -7051,11 +7703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="143105408"/>
-        <c:axId val="143111296"/>
+        <c:axId val="114017792"/>
+        <c:axId val="114019328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143105408"/>
+        <c:axId val="114017792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7064,7 +7716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143111296"/>
+        <c:crossAx val="114019328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7072,7 +7724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143111296"/>
+        <c:axId val="114019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -7097,14 +7749,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143105408"/>
+        <c:crossAx val="114017792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7283,11 +7934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154867584"/>
-        <c:axId val="154869120"/>
+        <c:axId val="113930240"/>
+        <c:axId val="113931776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154867584"/>
+        <c:axId val="113930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7306,7 +7957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154869120"/>
+        <c:crossAx val="113931776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7314,7 +7965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154869120"/>
+        <c:axId val="113931776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -7338,7 +7989,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7355,7 +8005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154867584"/>
+        <c:crossAx val="113930240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7612,11 +8262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154918912"/>
-        <c:axId val="154921216"/>
+        <c:axId val="114298880"/>
+        <c:axId val="114301184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154918912"/>
+        <c:axId val="114298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7641,7 +8291,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7661,7 +8310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154921216"/>
+        <c:crossAx val="114301184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7669,7 +8318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154921216"/>
+        <c:axId val="114301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -7696,7 +8345,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7716,14 +8364,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154918912"/>
+        <c:crossAx val="114298880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8262,11 +8909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="154990848"/>
-        <c:axId val="154996736"/>
+        <c:axId val="114358528"/>
+        <c:axId val="114364416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154990848"/>
+        <c:axId val="114358528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,7 +8932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154996736"/>
+        <c:crossAx val="114364416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8293,7 +8940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154996736"/>
+        <c:axId val="114364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8323,14 +8970,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154990848"/>
+        <c:crossAx val="114358528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10900,15 +11546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10922,6 +11568,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12377,8 +13083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,7 +13550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -14254,8 +14960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F21:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R90" sqref="R90"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14575,13 +15281,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -14677,8 +15387,564 @@
         <v>15.635199999999999</v>
       </c>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="J28" s="6">
+        <f>I28*D49</f>
+        <v>0.98588946947027678</v>
+      </c>
+      <c r="M28">
+        <v>0.8972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="E29">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="M29">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.2366</v>
+      </c>
+      <c r="E30">
+        <v>0.2271</v>
+      </c>
+      <c r="F30">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="H30">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="I30">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="M30">
+        <v>0.85519999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.8982</v>
+      </c>
+      <c r="G31">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="I31">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.94240000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.3226</v>
+      </c>
+      <c r="E32">
+        <v>0.3085</v>
+      </c>
+      <c r="F32">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="G32">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="I32">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="M32">
+        <v>0.82950000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="D33">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="E33">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.83</v>
+      </c>
+      <c r="H33">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="I33">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="M33">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.6431</v>
+      </c>
+      <c r="D34">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="E34">
+        <v>0.629</v>
+      </c>
+      <c r="F34">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="G34">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.87629999999999997</v>
+      </c>
+      <c r="I34">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="M34">
+        <v>0.8921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="D35">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="E35">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="G35">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="H35">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I35">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="M35">
+        <v>0.97250000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.29930000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.2949</v>
+      </c>
+      <c r="F36">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G36">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="H36">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="I36">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="M36">
+        <v>0.84870000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2269226</v>
+      </c>
+      <c r="C41">
+        <v>2258040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>10934458</v>
+      </c>
+      <c r="C42">
+        <v>10690443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>6688766</v>
+      </c>
+      <c r="C43">
+        <v>6580132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>19441302</v>
+      </c>
+      <c r="C44">
+        <v>18270037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>10585123</v>
+      </c>
+      <c r="C45">
+        <v>10567762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>6044336</v>
+      </c>
+      <c r="C46">
+        <v>5561332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3749659</v>
+      </c>
+      <c r="C47">
+        <v>3611312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>11284390</v>
+      </c>
+      <c r="C48">
+        <v>9328856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <f>GEOMEAN(B41:B48)</f>
+        <v>7373226.7706281077</v>
+      </c>
+      <c r="C49">
+        <f>GEOMEAN(C41:C48)</f>
+        <v>6997124.0998305781</v>
+      </c>
+      <c r="D49">
+        <f>B49/C49</f>
+        <v>1.053751036201664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="5">
+        <v>353.42</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.29039999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="5">
+        <v>287.11</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.30309999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="5">
+        <v>252.03</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="5">
+        <v>241.37</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.3266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="5">
+        <v>232.65</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="5">
+        <v>259.61</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.32550000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="86">
   <si>
     <t>1KB</t>
   </si>
@@ -266,15 +266,28 @@
   <si>
     <t>FAC+RAS+ gRselect</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>gshare</t>
+  </si>
+  <si>
+    <t>gRselect</t>
+  </si>
+  <si>
+    <t>fmax</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -319,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -327,6 +340,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,11 +465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110038016"/>
-        <c:axId val="110072576"/>
+        <c:axId val="139747328"/>
+        <c:axId val="139748864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110038016"/>
+        <c:axId val="139747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110072576"/>
+        <c:crossAx val="139748864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -485,7 +499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110072576"/>
+        <c:axId val="139748864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,6 +525,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -530,7 +545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110038016"/>
+        <c:crossAx val="139747328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -655,11 +670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114385664"/>
-        <c:axId val="114387200"/>
+        <c:axId val="153822720"/>
+        <c:axId val="153824256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114385664"/>
+        <c:axId val="153822720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114387200"/>
+        <c:crossAx val="153824256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -689,7 +704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114387200"/>
+        <c:axId val="153824256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -716,6 +731,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -735,7 +751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114385664"/>
+        <c:crossAx val="153822720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1307,11 +1323,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="117435392"/>
-        <c:axId val="114168576"/>
+        <c:axId val="155242496"/>
+        <c:axId val="155244032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117435392"/>
+        <c:axId val="155242496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114168576"/>
+        <c:crossAx val="155244032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1341,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114168576"/>
+        <c:axId val="155244032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,6 +1386,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1389,7 +1406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117435392"/>
+        <c:crossAx val="155242496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,8 +1630,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117380224"/>
-        <c:axId val="117381760"/>
+        <c:axId val="153855872"/>
+        <c:axId val="153857408"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1758,11 +1775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117389952"/>
-        <c:axId val="117388032"/>
+        <c:axId val="153861504"/>
+        <c:axId val="153859584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117380224"/>
+        <c:axId val="153855872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117381760"/>
+        <c:crossAx val="153857408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117381760"/>
+        <c:axId val="153857408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1845,12 +1862,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117380224"/>
+        <c:crossAx val="153855872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117388032"/>
+        <c:axId val="153859584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1877,6 +1894,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1896,13 +1914,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117389952"/>
+        <c:crossAx val="153861504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="117389952"/>
+        <c:axId val="153861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="117388032"/>
+        <c:crossAx val="153859584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,11 +2097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114266880"/>
-        <c:axId val="114268416"/>
+        <c:axId val="153777664"/>
+        <c:axId val="153779200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114266880"/>
+        <c:axId val="153777664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114268416"/>
+        <c:crossAx val="153779200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2113,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114268416"/>
+        <c:axId val="153779200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114266880"/>
+        <c:crossAx val="153777664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2324,11 +2342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117451392"/>
-        <c:axId val="117453568"/>
+        <c:axId val="153808256"/>
+        <c:axId val="156898816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117451392"/>
+        <c:axId val="153808256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,6 +2374,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2375,7 +2394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117453568"/>
+        <c:crossAx val="156898816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117453568"/>
+        <c:axId val="156898816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,6 +2431,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2431,7 +2451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117451392"/>
+        <c:crossAx val="153808256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,11 +2593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117482624"/>
-        <c:axId val="117484160"/>
+        <c:axId val="156923776"/>
+        <c:axId val="156925312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117482624"/>
+        <c:axId val="156923776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117484160"/>
+        <c:crossAx val="156925312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2607,7 +2627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117484160"/>
+        <c:axId val="156925312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2633,6 +2653,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2652,7 +2673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117482624"/>
+        <c:crossAx val="156923776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2783,11 +2804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117505408"/>
-        <c:axId val="118371456"/>
+        <c:axId val="157032832"/>
+        <c:axId val="157034368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117505408"/>
+        <c:axId val="157032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118371456"/>
+        <c:crossAx val="157034368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2817,7 +2838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118371456"/>
+        <c:axId val="157034368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117505408"/>
+        <c:crossAx val="157032832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3000,11 +3021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118412416"/>
-        <c:axId val="118413952"/>
+        <c:axId val="157071232"/>
+        <c:axId val="157072768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118412416"/>
+        <c:axId val="157071232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118413952"/>
+        <c:crossAx val="157072768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3034,7 +3055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118413952"/>
+        <c:axId val="157072768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118412416"/>
+        <c:crossAx val="157071232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3315,8 +3336,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118454528"/>
-        <c:axId val="118464512"/>
+        <c:axId val="157113344"/>
+        <c:axId val="157115136"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3522,11 +3543,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118480896"/>
-        <c:axId val="118466432"/>
+        <c:axId val="157123328"/>
+        <c:axId val="157117056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118454528"/>
+        <c:axId val="157113344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118464512"/>
+        <c:crossAx val="157115136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3556,7 +3577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118464512"/>
+        <c:axId val="157115136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3603,12 +3624,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118454528"/>
+        <c:crossAx val="157113344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118466432"/>
+        <c:axId val="157117056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3664,12 +3685,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118480896"/>
+        <c:crossAx val="157123328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="118480896"/>
+        <c:axId val="157123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,7 +3699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118466432"/>
+        <c:crossAx val="157117056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3845,11 +3866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118585216"/>
-        <c:axId val="118586752"/>
+        <c:axId val="161684096"/>
+        <c:axId val="161685888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118585216"/>
+        <c:axId val="161684096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +3892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118586752"/>
+        <c:crossAx val="161685888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3879,7 +3900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118586752"/>
+        <c:axId val="161685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3925,7 +3946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118585216"/>
+        <c:crossAx val="161684096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4077,11 +4098,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110432640"/>
-        <c:axId val="110434176"/>
+        <c:axId val="139773056"/>
+        <c:axId val="139774592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110432640"/>
+        <c:axId val="139773056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,7 +4124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110434176"/>
+        <c:crossAx val="139774592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4111,7 +4132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110434176"/>
+        <c:axId val="139774592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4165,7 +4186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110432640"/>
+        <c:crossAx val="139773056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4278,11 +4299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118611968"/>
-        <c:axId val="118613504"/>
+        <c:axId val="161731328"/>
+        <c:axId val="161732864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118611968"/>
+        <c:axId val="161731328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,7 +4325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118613504"/>
+        <c:crossAx val="161732864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4312,7 +4333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118613504"/>
+        <c:axId val="161732864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4337,7 +4358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118611968"/>
+        <c:crossAx val="161731328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4607,11 +4628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118106752"/>
-        <c:axId val="118108544"/>
+        <c:axId val="157207936"/>
+        <c:axId val="157213824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118106752"/>
+        <c:axId val="157207936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,7 +4654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118108544"/>
+        <c:crossAx val="157213824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4641,7 +4662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118108544"/>
+        <c:axId val="157213824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +4707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118106752"/>
+        <c:crossAx val="157207936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4976,11 +4997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118638464"/>
-        <c:axId val="118640000"/>
+        <c:axId val="161778304"/>
+        <c:axId val="161792384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118638464"/>
+        <c:axId val="161778304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,7 +5023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118640000"/>
+        <c:crossAx val="161792384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5010,7 +5031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118640000"/>
+        <c:axId val="161792384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,7 +5076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118638464"/>
+        <c:crossAx val="161778304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5352,11 +5373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109582592"/>
-        <c:axId val="109600768"/>
+        <c:axId val="140942336"/>
+        <c:axId val="155255552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109582592"/>
+        <c:axId val="140942336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109600768"/>
+        <c:crossAx val="155255552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5386,7 +5407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109600768"/>
+        <c:axId val="155255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5413,7 +5434,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5433,7 +5453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109582592"/>
+        <c:crossAx val="140942336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5651,8 +5671,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="109638016"/>
-        <c:axId val="109639552"/>
+        <c:axId val="155288704"/>
+        <c:axId val="155290240"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -5805,11 +5825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117376128"/>
-        <c:axId val="109641088"/>
+        <c:axId val="155305856"/>
+        <c:axId val="155304320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109638016"/>
+        <c:axId val="155288704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5818,7 +5838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109639552"/>
+        <c:crossAx val="155290240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5826,7 +5846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109639552"/>
+        <c:axId val="155290240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5837,12 +5857,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109638016"/>
+        <c:crossAx val="155288704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109641088"/>
+        <c:axId val="155304320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5852,12 +5872,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117376128"/>
+        <c:crossAx val="155305856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="117376128"/>
+        <c:axId val="155305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5866,7 +5886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109641088"/>
+        <c:crossAx val="155304320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5999,11 +6019,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118646272"/>
-        <c:axId val="118647808"/>
+        <c:axId val="141035776"/>
+        <c:axId val="141045760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118646272"/>
+        <c:axId val="141035776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6012,7 +6032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118647808"/>
+        <c:crossAx val="141045760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6020,7 +6040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118647808"/>
+        <c:axId val="141045760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6032,11 +6052,230 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118646272"/>
+        <c:crossAx val="141035776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11188959009988059"/>
+          <c:y val="2.577994676915794E-2"/>
+          <c:w val="0.74559085433507044"/>
+          <c:h val="0.94333643973835468"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fmax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$A$76:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>gRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$76:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11588222652052438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12822695035461007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16054158607350089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$C$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Presentation!$A$76:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>gRselect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perceptron</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O-TAGE-SC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$C$76:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-9.1324200913242004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.765601217656021E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8006088280059238E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="173500288"/>
+        <c:axId val="173501824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="173500288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173501824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1000"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173501824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173500288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6146,11 +6385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110441984"/>
-        <c:axId val="110443520"/>
+        <c:axId val="139786496"/>
+        <c:axId val="141369344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110441984"/>
+        <c:axId val="139786496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,7 +6411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110443520"/>
+        <c:crossAx val="141369344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6180,7 +6419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110443520"/>
+        <c:axId val="141369344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6206,6 +6445,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6225,7 +6465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110441984"/>
+        <c:crossAx val="139786496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -6374,11 +6614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110484096"/>
-        <c:axId val="110485888"/>
+        <c:axId val="141380992"/>
+        <c:axId val="141390976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110484096"/>
+        <c:axId val="141380992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6400,7 +6640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110485888"/>
+        <c:crossAx val="141390976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6408,7 +6648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110485888"/>
+        <c:axId val="141390976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6453,7 +6693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110484096"/>
+        <c:crossAx val="141380992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -7024,11 +7264,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="110412160"/>
-        <c:axId val="110413696"/>
+        <c:axId val="153389696"/>
+        <c:axId val="153391488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110412160"/>
+        <c:axId val="153389696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7050,7 +7290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110413696"/>
+        <c:crossAx val="153391488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7058,7 +7298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110413696"/>
+        <c:axId val="153391488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -7104,7 +7344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110412160"/>
+        <c:crossAx val="153389696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -7703,11 +7943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="114017792"/>
-        <c:axId val="114019328"/>
+        <c:axId val="144546048"/>
+        <c:axId val="144547840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114017792"/>
+        <c:axId val="144546048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7716,7 +7956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114019328"/>
+        <c:crossAx val="144547840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7724,7 +7964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114019328"/>
+        <c:axId val="144547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -7749,13 +7989,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114017792"/>
+        <c:crossAx val="144546048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7934,11 +8175,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113930240"/>
-        <c:axId val="113931776"/>
+        <c:axId val="144445824"/>
+        <c:axId val="144447360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113930240"/>
+        <c:axId val="144445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7957,7 +8198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113931776"/>
+        <c:crossAx val="144447360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7965,7 +8206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113931776"/>
+        <c:axId val="144447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -7989,6 +8230,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8005,7 +8247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113930240"/>
+        <c:crossAx val="144445824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8262,11 +8504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114298880"/>
-        <c:axId val="114301184"/>
+        <c:axId val="141394688"/>
+        <c:axId val="144468992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114298880"/>
+        <c:axId val="141394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8291,6 +8533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8310,7 +8553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114301184"/>
+        <c:crossAx val="144468992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8318,7 +8561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114301184"/>
+        <c:axId val="144468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -8345,6 +8588,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8364,13 +8608,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114298880"/>
+        <c:crossAx val="141394688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8909,11 +9154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="114358528"/>
-        <c:axId val="114364416"/>
+        <c:axId val="144608256"/>
+        <c:axId val="144622336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114358528"/>
+        <c:axId val="144608256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8932,7 +9177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114364416"/>
+        <c:crossAx val="144622336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8940,7 +9185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114364416"/>
+        <c:axId val="144622336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -8970,13 +9215,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114358528"/>
+        <c:crossAx val="144608256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11628,6 +11874,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13084,7 +13360,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" activeCellId="1" sqref="G9 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13550,8 +13826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15281,10 +15557,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M63"/>
+  <dimension ref="A2:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="S77" sqref="S77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15942,6 +16218,108 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E63" s="5"/>
     </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="5"/>
+      <c r="E71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="5"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <f>E75/$E$75 - 1</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>F75/$F$75 -1</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>232.65</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="7">
+        <f t="shared" ref="B76:B78" si="0">E76/$E$75 - 1</f>
+        <v>0.11588222652052438</v>
+      </c>
+      <c r="C76" s="7">
+        <f t="shared" ref="C76:C78" si="1">F76/$F$75 -1</f>
+        <v>-9.1324200913242004E-3</v>
+      </c>
+      <c r="E76">
+        <v>259.61</v>
+      </c>
+      <c r="F76">
+        <v>0.32550000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12822695035461007</v>
+      </c>
+      <c r="C77" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.765601217656021E-2</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77">
+        <v>262.48200000000003</v>
+      </c>
+      <c r="F77">
+        <v>0.32269999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16054158607350089</v>
+      </c>
+      <c r="C78" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8006088280059238E-3</v>
+      </c>
+      <c r="E78">
+        <v>270</v>
+      </c>
+      <c r="F78">
+        <v>0.32941999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="28755" windowHeight="12840" activeTab="5"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="19995" windowHeight="11520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
   <si>
     <t>1KB</t>
   </si>
@@ -186,12 +186,6 @@
     <t>BTB-0</t>
   </si>
   <si>
-    <t>BTB-1</t>
-  </si>
-  <si>
-    <t>BTB-2</t>
-  </si>
-  <si>
     <t>BTB-3</t>
   </si>
   <si>
@@ -199,12 +193,6 @@
   </si>
   <si>
     <t>Address Misses</t>
-  </si>
-  <si>
-    <t>BTB-512</t>
-  </si>
-  <si>
-    <t>BTB-1024</t>
   </si>
   <si>
     <t>BTB+RAS</t>
@@ -219,12 +207,6 @@
     <t>BASE</t>
   </si>
   <si>
-    <t>BTB-256</t>
-  </si>
-  <si>
-    <t>BTB-PAC</t>
-  </si>
-  <si>
     <t>BTB-FAC</t>
   </si>
   <si>
@@ -237,9 +219,6 @@
     <t>Configs</t>
   </si>
   <si>
-    <t>fmax avg</t>
-  </si>
-  <si>
     <t>dumP</t>
   </si>
   <si>
@@ -247,12 +226,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>BTB-1024 +RAS +FAC</t>
-  </si>
-  <si>
-    <t>BTB+ bimodal</t>
   </si>
   <si>
     <t>FAC+RAS+ bimodal</t>
@@ -277,6 +250,90 @@
   </si>
   <si>
     <t>fmax</t>
+  </si>
+  <si>
+    <t>BTB+FAC</t>
+  </si>
+  <si>
+    <t>BTB+FAC+RAS</t>
+  </si>
+  <si>
+    <t>Fmax sensitivity</t>
+  </si>
+  <si>
+    <t>1KB GRselect</t>
+  </si>
+  <si>
+    <t>2KB Grselect</t>
+  </si>
+  <si>
+    <t>4KB Grselect</t>
+  </si>
+  <si>
+    <t>8KB GRselect</t>
+  </si>
+  <si>
+    <t>16KB GRselect</t>
+  </si>
+  <si>
+    <t>32KB GRselect</t>
+  </si>
+  <si>
+    <t>1KB Gshare</t>
+  </si>
+  <si>
+    <t>2KB Gshare</t>
+  </si>
+  <si>
+    <t>4KB Gshare</t>
+  </si>
+  <si>
+    <t>8KB Gshare</t>
+  </si>
+  <si>
+    <t>16KB Gshare</t>
+  </si>
+  <si>
+    <t>32KB Gshare</t>
+  </si>
+  <si>
+    <t>1KB Bimodal</t>
+  </si>
+  <si>
+    <t>2KB Bimodal</t>
+  </si>
+  <si>
+    <t>4KB Bimodal</t>
+  </si>
+  <si>
+    <t>8KB Bimodal</t>
+  </si>
+  <si>
+    <t>16KB Bimodal</t>
+  </si>
+  <si>
+    <t>32KB Bimodal</t>
+  </si>
+  <si>
+    <t>1KB Perceptron</t>
+  </si>
+  <si>
+    <t>2KB Perceptron</t>
+  </si>
+  <si>
+    <t>4KB Perceptron</t>
+  </si>
+  <si>
+    <t>8KB Perceptron</t>
+  </si>
+  <si>
+    <t>16KB Perceptron</t>
+  </si>
+  <si>
+    <t>32KB Perceptron</t>
+  </si>
+  <si>
+    <t>mpki</t>
   </si>
 </sst>
 </file>
@@ -465,11 +522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139747328"/>
-        <c:axId val="139748864"/>
+        <c:axId val="98712576"/>
+        <c:axId val="98734848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139747328"/>
+        <c:axId val="98712576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139748864"/>
+        <c:crossAx val="98734848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139748864"/>
+        <c:axId val="98734848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -545,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139747328"/>
+        <c:crossAx val="98712576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -670,11 +726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153822720"/>
-        <c:axId val="153824256"/>
+        <c:axId val="104686336"/>
+        <c:axId val="104687872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153822720"/>
+        <c:axId val="104686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153824256"/>
+        <c:crossAx val="104687872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -704,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153824256"/>
+        <c:axId val="104687872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -731,7 +787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -751,7 +806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153822720"/>
+        <c:crossAx val="104686336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1323,11 +1378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="155242496"/>
-        <c:axId val="155244032"/>
+        <c:axId val="104856576"/>
+        <c:axId val="104407808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155242496"/>
+        <c:axId val="104856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155244032"/>
+        <c:crossAx val="104407808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1357,7 +1412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155244032"/>
+        <c:axId val="104407808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155242496"/>
+        <c:crossAx val="104856576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,8 +1685,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153855872"/>
-        <c:axId val="153857408"/>
+        <c:axId val="104801408"/>
+        <c:axId val="104802944"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1775,11 +1830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153861504"/>
-        <c:axId val="153859584"/>
+        <c:axId val="104471168"/>
+        <c:axId val="104469248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153855872"/>
+        <c:axId val="104801408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153857408"/>
+        <c:crossAx val="104802944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153857408"/>
+        <c:axId val="104802944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,12 +1917,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153855872"/>
+        <c:crossAx val="104801408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153859584"/>
+        <c:axId val="104469248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1914,13 +1969,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153861504"/>
+        <c:crossAx val="104471168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="153861504"/>
+        <c:axId val="104471168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="153859584"/>
+        <c:crossAx val="104469248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2097,11 +2152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153777664"/>
-        <c:axId val="153779200"/>
+        <c:axId val="104506112"/>
+        <c:axId val="104507648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153777664"/>
+        <c:axId val="104506112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153779200"/>
+        <c:crossAx val="104507648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2131,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153779200"/>
+        <c:axId val="104507648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153777664"/>
+        <c:crossAx val="104506112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2342,11 +2397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153808256"/>
-        <c:axId val="156898816"/>
+        <c:axId val="104868480"/>
+        <c:axId val="104870656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153808256"/>
+        <c:axId val="104868480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156898816"/>
+        <c:crossAx val="104870656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156898816"/>
+        <c:axId val="104870656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153808256"/>
+        <c:crossAx val="104868480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2593,11 +2648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="156923776"/>
-        <c:axId val="156925312"/>
+        <c:axId val="104899712"/>
+        <c:axId val="104901248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156923776"/>
+        <c:axId val="104899712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156925312"/>
+        <c:crossAx val="104901248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156925312"/>
+        <c:axId val="104901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156923776"/>
+        <c:crossAx val="104899712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2804,11 +2859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157032832"/>
-        <c:axId val="157034368"/>
+        <c:axId val="104922496"/>
+        <c:axId val="105796736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157032832"/>
+        <c:axId val="104922496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157034368"/>
+        <c:crossAx val="105796736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2838,7 +2893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157034368"/>
+        <c:axId val="105796736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157032832"/>
+        <c:crossAx val="104922496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3021,11 +3076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157071232"/>
-        <c:axId val="157072768"/>
+        <c:axId val="105841792"/>
+        <c:axId val="105843328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157071232"/>
+        <c:axId val="105841792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157072768"/>
+        <c:crossAx val="105843328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +3110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157072768"/>
+        <c:axId val="105843328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157071232"/>
+        <c:crossAx val="105841792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,8 +3391,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157113344"/>
-        <c:axId val="157115136"/>
+        <c:axId val="105879808"/>
+        <c:axId val="105889792"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3543,11 +3598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157123328"/>
-        <c:axId val="157117056"/>
+        <c:axId val="105906176"/>
+        <c:axId val="105891712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157113344"/>
+        <c:axId val="105879808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157115136"/>
+        <c:crossAx val="105889792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3577,7 +3632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157115136"/>
+        <c:axId val="105889792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3605,6 +3660,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3624,12 +3680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157113344"/>
+        <c:crossAx val="105879808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157117056"/>
+        <c:axId val="105891712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3666,6 +3722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3685,12 +3742,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157123328"/>
+        <c:crossAx val="105906176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="157123328"/>
+        <c:axId val="105906176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,7 +3756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157117056"/>
+        <c:crossAx val="105891712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3866,11 +3923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161684096"/>
-        <c:axId val="161685888"/>
+        <c:axId val="105949056"/>
+        <c:axId val="105950592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161684096"/>
+        <c:axId val="105949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,7 +3949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161685888"/>
+        <c:crossAx val="105950592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3900,7 +3957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161685888"/>
+        <c:axId val="105950592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3927,6 +3984,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3946,7 +4004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161684096"/>
+        <c:crossAx val="105949056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4098,11 +4156,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139773056"/>
-        <c:axId val="139774592"/>
+        <c:axId val="102306176"/>
+        <c:axId val="102307712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139773056"/>
+        <c:axId val="102306176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4124,7 +4182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139774592"/>
+        <c:crossAx val="102307712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4132,7 +4190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139774592"/>
+        <c:axId val="102307712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4186,7 +4244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139773056"/>
+        <c:crossAx val="102306176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4299,11 +4357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161731328"/>
-        <c:axId val="161732864"/>
+        <c:axId val="105963520"/>
+        <c:axId val="105965056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161731328"/>
+        <c:axId val="105963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4325,7 +4383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161732864"/>
+        <c:crossAx val="105965056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4333,7 +4391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161732864"/>
+        <c:axId val="105965056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4358,7 +4416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161731328"/>
+        <c:crossAx val="105963520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4628,11 +4686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157207936"/>
-        <c:axId val="157213824"/>
+        <c:axId val="105450112"/>
+        <c:axId val="105460096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157207936"/>
+        <c:axId val="105450112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +4712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157213824"/>
+        <c:crossAx val="105460096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4662,7 +4720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157213824"/>
+        <c:axId val="105460096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4688,6 +4746,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4707,7 +4766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157207936"/>
+        <c:crossAx val="105450112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4997,11 +5056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161778304"/>
-        <c:axId val="161792384"/>
+        <c:axId val="106051456"/>
+        <c:axId val="106052992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161778304"/>
+        <c:axId val="106051456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161792384"/>
+        <c:crossAx val="106052992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5031,7 +5090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161792384"/>
+        <c:axId val="106052992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,6 +5116,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5076,7 +5136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161778304"/>
+        <c:crossAx val="106051456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,11 +5433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140942336"/>
-        <c:axId val="155255552"/>
+        <c:axId val="98441472"/>
+        <c:axId val="98459648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140942336"/>
+        <c:axId val="98441472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5399,7 +5459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155255552"/>
+        <c:crossAx val="98459648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5407,7 +5467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155255552"/>
+        <c:axId val="98459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5434,6 +5494,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5453,7 +5514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140942336"/>
+        <c:crossAx val="98441472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5533,7 +5594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fmax avg</c:v>
+                  <c:v>Fmax</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5541,25 +5602,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:f>Presentation!$A$56:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Base</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BTB+ bimodal</c:v>
+                  <c:v>FAC+RAS+ bimodal</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FAC+RAS+ bimodal</c:v>
+                  <c:v>FAC+RAS+ gselect</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FAC+RAS+ gselect</c:v>
+                  <c:v>FAC+RAS+ gshare</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FAC+RAS+ gshare</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FAC+RAS+ gRselect</c:v>
                 </c:pt>
               </c:strCache>
@@ -5567,26 +5625,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Presentation!$B$56:$B$61</c:f>
+              <c:f>Presentation!$B$56:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>353.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>287.11</c:v>
+                  <c:v>252.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252.03</c:v>
+                  <c:v>241.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>241.37</c:v>
+                  <c:v>232.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>259.61</c:v>
                 </c:pt>
               </c:numCache>
@@ -5610,25 +5665,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:f>Presentation!$A$56:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Base</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BTB+ bimodal</c:v>
+                  <c:v>FAC+RAS+ bimodal</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FAC+RAS+ bimodal</c:v>
+                  <c:v>FAC+RAS+ gselect</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FAC+RAS+ gselect</c:v>
+                  <c:v>FAC+RAS+ gshare</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FAC+RAS+ gshare</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FAC+RAS+ gRselect</c:v>
                 </c:pt>
               </c:strCache>
@@ -5636,10 +5688,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Presentation!$C$56:$C$61</c:f>
+              <c:f>Presentation!$C$56:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5653,9 +5705,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5671,8 +5720,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155288704"/>
-        <c:axId val="155290240"/>
+        <c:axId val="98492800"/>
+        <c:axId val="98494336"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -5695,25 +5744,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:f>Presentation!$A$56:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Base</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BTB+ bimodal</c:v>
+                  <c:v>FAC+RAS+ bimodal</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FAC+RAS+ bimodal</c:v>
+                  <c:v>FAC+RAS+ gselect</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FAC+RAS+ gselect</c:v>
+                  <c:v>FAC+RAS+ gshare</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FAC+RAS+ gshare</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FAC+RAS+ gRselect</c:v>
                 </c:pt>
               </c:strCache>
@@ -5721,10 +5767,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Presentation!$D$56:$D$61</c:f>
+              <c:f>Presentation!$D$56:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5738,9 +5784,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5764,25 +5807,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Presentation!$A$56:$A$61</c:f>
+              <c:f>Presentation!$A$56:$A$60</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Base</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BTB+ bimodal</c:v>
+                  <c:v>FAC+RAS+ bimodal</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FAC+RAS+ bimodal</c:v>
+                  <c:v>FAC+RAS+ gselect</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FAC+RAS+ gselect</c:v>
+                  <c:v>FAC+RAS+ gshare</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FAC+RAS+ gshare</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FAC+RAS+ gRselect</c:v>
                 </c:pt>
               </c:strCache>
@@ -5790,26 +5830,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Presentation!$E$56:$E$61</c:f>
+              <c:f>Presentation!$E$56:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.29039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30309999999999998</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32200000000000001</c:v>
+                  <c:v>0.3266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3266</c:v>
+                  <c:v>0.32850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0.32550000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -5825,11 +5862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155305856"/>
-        <c:axId val="155304320"/>
+        <c:axId val="104440960"/>
+        <c:axId val="98495872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155288704"/>
+        <c:axId val="98492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5838,7 +5875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155290240"/>
+        <c:crossAx val="98494336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5846,7 +5883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155290240"/>
+        <c:axId val="98494336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,12 +5894,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155288704"/>
+        <c:crossAx val="98492800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155304320"/>
+        <c:axId val="98495872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5872,12 +5909,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155305856"/>
+        <c:crossAx val="104440960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155305856"/>
+        <c:axId val="104440960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5886,7 +5923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155304320"/>
+        <c:crossAx val="98495872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5946,64 +5983,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Presentation!$C$27:$J$27</c:f>
+              <c:f>Presentation!$C$27:$F$27</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BTB-256</c:v>
+                  <c:v>FAC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BTB-512</c:v>
+                  <c:v>BTB+FAC</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BTB-1024</c:v>
+                  <c:v>FAC+RAS</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BTB-PAC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BTB-FAC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FAC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FAC+RAS</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>BTB-1024 +RAS +FAC</c:v>
+                  <c:v>BTB+FAC+RAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Presentation!$C$28:$J$28</c:f>
+              <c:f>Presentation!$C$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.30320000000000003</c:v>
+                  <c:v>0.84470000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29809999999999998</c:v>
+                  <c:v>0.90159999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29380000000000001</c:v>
+                  <c:v>0.93559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80710000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90159999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.98588946947027678</c:v>
                 </c:pt>
               </c:numCache>
@@ -6019,11 +6032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141035776"/>
-        <c:axId val="141045760"/>
+        <c:axId val="106046976"/>
+        <c:axId val="106048512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141035776"/>
+        <c:axId val="106046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6032,7 +6045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141045760"/>
+        <c:crossAx val="106048512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6040,7 +6053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141045760"/>
+        <c:axId val="106048512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6052,7 +6065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141035776"/>
+        <c:crossAx val="106046976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6213,11 +6226,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="173500288"/>
-        <c:axId val="173501824"/>
+        <c:axId val="98587008"/>
+        <c:axId val="98588544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173500288"/>
+        <c:axId val="98587008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6236,7 +6249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173501824"/>
+        <c:crossAx val="98588544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6245,7 +6258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173501824"/>
+        <c:axId val="98588544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6266,7 +6279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173500288"/>
+        <c:crossAx val="98587008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6276,6 +6289,1029 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presentation!$B$103:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$104:$Q$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>63.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.503999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.311999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.831999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102.633168</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.633168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAC+RAS+ bimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presentation!$B$103:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$105:$Q$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>70.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.153660000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAC+RAS+ gselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presentation!$B$103:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$106:$Q$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>71.852000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.831441999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAC+RAS+ gshare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presentation!$B$103:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$107:$Q$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>72.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.555000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.425525000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAC+RAS+ gRselect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Presentation!$B$103:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Presentation!$B$108:$Q$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>71.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.865000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84.503055000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="45985152"/>
+        <c:axId val="46030848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45985152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46030848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46030848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45985152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Presentation!$B$138:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>259.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>228.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>219.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>217.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>197.11199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>229.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200.99199999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262.48200000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>235.84200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>227.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>206.97200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165.018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>221.874</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>223.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Presentation!$C$138:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>12.6754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.963800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.660500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8396000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.158200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.3308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.3986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.1152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8455999999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.036799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.407299999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.189900000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.980600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.635199999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.368500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.7182</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.776199999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.1859</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.6266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.232200000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.149900000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.154400000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2553999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2526999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="50086656"/>
+        <c:axId val="49813376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50086656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49813376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49813376"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50086656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6385,11 +7421,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139786496"/>
-        <c:axId val="141369344"/>
+        <c:axId val="102315520"/>
+        <c:axId val="102317056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139786496"/>
+        <c:axId val="102315520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,7 +7447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141369344"/>
+        <c:crossAx val="102317056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6419,7 +7455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141369344"/>
+        <c:axId val="102317056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,7 +7481,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6465,7 +7500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139786496"/>
+        <c:crossAx val="102315520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -6614,11 +7649,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141380992"/>
-        <c:axId val="141390976"/>
+        <c:axId val="102361728"/>
+        <c:axId val="102363520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141380992"/>
+        <c:axId val="102361728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6640,7 +7675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141390976"/>
+        <c:crossAx val="102363520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6648,7 +7683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141390976"/>
+        <c:axId val="102363520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6693,7 +7728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141380992"/>
+        <c:crossAx val="102361728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -7264,11 +8299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="153389696"/>
-        <c:axId val="153391488"/>
+        <c:axId val="102414208"/>
+        <c:axId val="102415744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153389696"/>
+        <c:axId val="102414208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +8325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153391488"/>
+        <c:crossAx val="102415744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7298,7 +8333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153391488"/>
+        <c:axId val="102415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -7344,7 +8379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153389696"/>
+        <c:crossAx val="102414208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -7943,11 +8978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="144546048"/>
-        <c:axId val="144547840"/>
+        <c:axId val="102481280"/>
+        <c:axId val="102483072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144546048"/>
+        <c:axId val="102481280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7956,7 +8991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144547840"/>
+        <c:crossAx val="102483072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7964,7 +8999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144547840"/>
+        <c:axId val="102483072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -7996,7 +9031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144546048"/>
+        <c:crossAx val="102481280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8175,11 +9210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144445824"/>
-        <c:axId val="144447360"/>
+        <c:axId val="102901632"/>
+        <c:axId val="102903168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144445824"/>
+        <c:axId val="102901632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8198,7 +9233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144447360"/>
+        <c:crossAx val="102903168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8206,7 +9241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144447360"/>
+        <c:axId val="102903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -8247,7 +9282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144445824"/>
+        <c:crossAx val="102901632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8504,11 +9539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141394688"/>
-        <c:axId val="144468992"/>
+        <c:axId val="102948864"/>
+        <c:axId val="102951168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141394688"/>
+        <c:axId val="102948864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8553,7 +9588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144468992"/>
+        <c:crossAx val="102951168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8561,7 +9596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144468992"/>
+        <c:axId val="102951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -8608,7 +9643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141394688"/>
+        <c:crossAx val="102948864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9154,11 +10189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="144608256"/>
-        <c:axId val="144622336"/>
+        <c:axId val="104655104"/>
+        <c:axId val="104665088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144608256"/>
+        <c:axId val="104655104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9177,7 +10212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144622336"/>
+        <c:crossAx val="104665088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9185,7 +10220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144622336"/>
+        <c:axId val="104665088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -9215,14 +10250,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144608256"/>
+        <c:crossAx val="104655104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11851,16 +12885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11904,6 +12938,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13827,7 +14921,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14825,7 +15919,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="A2" sqref="A2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15236,7 +16330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F21:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
@@ -15557,10 +16651,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M78"/>
+  <dimension ref="A2:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15663,59 +16757,41 @@
         <v>15.635199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
       </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="H26" t="s">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -15723,35 +16799,23 @@
         <v>0</v>
       </c>
       <c r="C28" s="6">
-        <v>0.30320000000000003</v>
+        <v>0.84470000000000001</v>
       </c>
       <c r="D28" s="6">
-        <v>0.29809999999999998</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="E28" s="6">
-        <v>0.29380000000000001</v>
+        <v>0.93559999999999999</v>
       </c>
       <c r="F28" s="6">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.84470000000000001</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.93559999999999999</v>
-      </c>
-      <c r="J28" s="6">
-        <f>I28*D49</f>
+        <f>E28*D49</f>
         <v>0.98588946947027678</v>
       </c>
-      <c r="M28">
+      <c r="I28">
         <v>0.8972</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -15759,31 +16823,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.86870000000000003</v>
+        <v>0.97289999999999999</v>
       </c>
       <c r="D29">
-        <v>0.86860000000000004</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="E29">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="F29">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="G29">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="H29">
-        <v>0.97289999999999999</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="I29">
-        <v>0.98340000000000005</v>
-      </c>
-      <c r="M29">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -15791,31 +16843,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.24529999999999999</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="D30">
-        <v>0.2366</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="E30">
-        <v>0.2271</v>
-      </c>
-      <c r="F30">
-        <v>0.70630000000000004</v>
-      </c>
-      <c r="G30">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="H30">
-        <v>0.76749999999999996</v>
+        <v>0.91379999999999995</v>
       </c>
       <c r="I30">
-        <v>0.91379999999999995</v>
-      </c>
-      <c r="M30">
         <v>0.85519999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -15823,31 +16863,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.15129999999999999</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="D31">
-        <v>0.14929999999999999</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="E31">
-        <v>0.14879999999999999</v>
-      </c>
-      <c r="F31">
-        <v>0.8982</v>
-      </c>
-      <c r="G31">
-        <v>0.94850000000000001</v>
-      </c>
-      <c r="H31">
-        <v>0.90069999999999995</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="I31">
-        <v>0.95140000000000002</v>
-      </c>
-      <c r="M31">
         <v>0.94240000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -15855,31 +16883,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.33850000000000002</v>
+        <v>0.78959999999999997</v>
       </c>
       <c r="D32">
-        <v>0.3226</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="E32">
-        <v>0.3085</v>
-      </c>
-      <c r="F32">
-        <v>0.87350000000000005</v>
-      </c>
-      <c r="G32">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="H32">
-        <v>0.78959999999999997</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="I32">
-        <v>0.84250000000000003</v>
-      </c>
-      <c r="M32">
         <v>0.82950000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -15887,31 +16903,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.36770000000000003</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="D33">
-        <v>0.36670000000000003</v>
+        <v>0.83</v>
       </c>
       <c r="E33">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="F33">
-        <v>0.66020000000000001</v>
-      </c>
-      <c r="G33">
-        <v>0.83</v>
-      </c>
-      <c r="H33">
-        <v>0.79249999999999998</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="I33">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="M33">
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -15919,31 +16923,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.6431</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="D34">
-        <v>0.63449999999999995</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="E34">
-        <v>0.629</v>
-      </c>
-      <c r="F34">
-        <v>0.90280000000000005</v>
-      </c>
-      <c r="G34">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="H34">
-        <v>0.87629999999999997</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="I34">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="M34">
         <v>0.8921</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -15951,31 +16943,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>9.1200000000000003E-2</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D35">
-        <v>9.0399999999999994E-2</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="E35">
-        <v>9.0300000000000005E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.95189999999999997</v>
-      </c>
-      <c r="G35">
-        <v>0.97740000000000005</v>
-      </c>
-      <c r="H35">
-        <v>0.95799999999999996</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="I35">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="M35">
         <v>0.97250000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -15983,39 +16963,27 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.30380000000000001</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="D36">
-        <v>0.29930000000000001</v>
+        <v>0.77159999999999995</v>
       </c>
       <c r="E36">
-        <v>0.2949</v>
-      </c>
-      <c r="F36">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="G36">
-        <v>0.77159999999999995</v>
-      </c>
-      <c r="H36">
-        <v>0.73360000000000003</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="I36">
-        <v>0.93689999999999996</v>
-      </c>
-      <c r="M36">
         <v>0.84870000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2269226</v>
       </c>
@@ -16023,7 +16991,7 @@
         <v>2258040</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>10934458</v>
       </c>
@@ -16031,7 +16999,7 @@
         <v>10690443</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>6688766</v>
       </c>
@@ -16039,7 +17007,7 @@
         <v>6580132</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>19441302</v>
       </c>
@@ -16047,7 +17015,7 @@
         <v>18270037</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>10585123</v>
       </c>
@@ -16055,7 +17023,7 @@
         <v>10567762</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>6044336</v>
       </c>
@@ -16063,7 +17031,7 @@
         <v>5561332</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3749659</v>
       </c>
@@ -16071,7 +17039,7 @@
         <v>3611312</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>11284390</v>
       </c>
@@ -16081,7 +17049,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <f>GEOMEAN(B41:B48)</f>
@@ -16098,16 +17066,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
@@ -16115,7 +17083,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B56" s="5">
         <v>353.42</v>
@@ -16132,10 +17100,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B57" s="5">
-        <v>287.11</v>
+        <v>252.03</v>
       </c>
       <c r="C57" s="5">
         <v>0</v>
@@ -16144,15 +17112,15 @@
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <v>0.30309999999999998</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B58" s="5">
-        <v>252.03</v>
+        <v>241.37</v>
       </c>
       <c r="C58" s="5">
         <v>0</v>
@@ -16161,15 +17129,15 @@
         <v>0</v>
       </c>
       <c r="E58" s="5">
-        <v>0.32200000000000001</v>
+        <v>0.3266</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B59" s="5">
-        <v>241.37</v>
+        <v>232.65</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -16178,15 +17146,15 @@
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <v>0.3266</v>
+        <v>0.32850000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B60" s="5">
-        <v>232.65</v>
+        <v>259.61</v>
       </c>
       <c r="C60" s="5">
         <v>0</v>
@@ -16195,23 +17163,6 @@
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <v>0.32850000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="5">
-        <v>259.61</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5">
         <v>0.32550000000000001</v>
       </c>
     </row>
@@ -16220,13 +17171,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" s="5"/>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -16245,7 +17196,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <f>E75/$E$75 - 1</f>
@@ -16264,7 +17215,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B76" s="7">
         <f t="shared" ref="B76:B78" si="0">E76/$E$75 - 1</f>
@@ -16318,6 +17269,1436 @@
       </c>
       <c r="F78">
         <v>0.32941999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <v>353.42</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.29039999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>252.03</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <v>241.37</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.3266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <v>232.65</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.32850000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <v>259.61</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.32550000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5">
+        <v>220</v>
+      </c>
+      <c r="C96" s="5">
+        <v>230</v>
+      </c>
+      <c r="D96" s="5">
+        <v>240</v>
+      </c>
+      <c r="E96" s="5">
+        <v>250</v>
+      </c>
+      <c r="F96" s="5">
+        <v>260</v>
+      </c>
+      <c r="G96" s="5">
+        <v>270</v>
+      </c>
+      <c r="H96" s="5">
+        <v>280</v>
+      </c>
+      <c r="I96" s="5">
+        <v>290</v>
+      </c>
+      <c r="J96" s="5">
+        <v>300</v>
+      </c>
+      <c r="K96" s="5">
+        <v>310</v>
+      </c>
+      <c r="L96" s="5">
+        <v>320</v>
+      </c>
+      <c r="M96" s="5">
+        <v>330</v>
+      </c>
+      <c r="N96" s="5">
+        <v>340</v>
+      </c>
+      <c r="O96" s="5">
+        <v>350</v>
+      </c>
+      <c r="P96" s="5">
+        <v>360</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97">
+        <f>MIN(B$96,$B$90)</f>
+        <v>220</v>
+      </c>
+      <c r="C97">
+        <f>MIN(C96,$B$90)</f>
+        <v>230</v>
+      </c>
+      <c r="D97">
+        <f>MIN(D96,$B$90)</f>
+        <v>240</v>
+      </c>
+      <c r="E97">
+        <f>MIN(E96,$B$90)</f>
+        <v>250</v>
+      </c>
+      <c r="F97">
+        <f>MIN(F96,$B$90)</f>
+        <v>260</v>
+      </c>
+      <c r="G97">
+        <f>MIN(G96,$B$90)</f>
+        <v>270</v>
+      </c>
+      <c r="H97">
+        <f>MIN(H96,$B$90)</f>
+        <v>280</v>
+      </c>
+      <c r="I97">
+        <f>MIN(I96,$B$90)</f>
+        <v>290</v>
+      </c>
+      <c r="J97">
+        <f>MIN(J96,$B$90)</f>
+        <v>300</v>
+      </c>
+      <c r="K97">
+        <f>MIN(K96,$B$90)</f>
+        <v>310</v>
+      </c>
+      <c r="L97">
+        <f>MIN(L96,$B$90)</f>
+        <v>320</v>
+      </c>
+      <c r="M97">
+        <f>MIN(M96,$B$90)</f>
+        <v>330</v>
+      </c>
+      <c r="N97">
+        <f>MIN(N96,$B$90)</f>
+        <v>340</v>
+      </c>
+      <c r="O97">
+        <f>MIN(O96,$B$90)</f>
+        <v>350</v>
+      </c>
+      <c r="P97">
+        <f>MIN(P96,$B$90)</f>
+        <v>353.42</v>
+      </c>
+      <c r="Q97">
+        <f>MIN(Q96,$B$90)</f>
+        <v>353.42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98">
+        <f>MIN(B$96,$B$91)</f>
+        <v>220</v>
+      </c>
+      <c r="C98">
+        <f>MIN(C96,$B$91)</f>
+        <v>230</v>
+      </c>
+      <c r="D98">
+        <f>MIN(D96,$B$91)</f>
+        <v>240</v>
+      </c>
+      <c r="E98">
+        <f>MIN(E96,$B$91)</f>
+        <v>250</v>
+      </c>
+      <c r="F98">
+        <f>MIN(F96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="G98">
+        <f>MIN(G96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="H98">
+        <f>MIN(H96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="I98">
+        <f>MIN(I96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="J98">
+        <f>MIN(J96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="K98">
+        <f>MIN(K96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="L98">
+        <f>MIN(L96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="M98">
+        <f>MIN(M96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="N98">
+        <f>MIN(N96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="O98">
+        <f>MIN(O96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="P98">
+        <f>MIN(P96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+      <c r="Q98">
+        <f>MIN(Q96,$B$91)</f>
+        <v>252.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99">
+        <f>MIN(B$96,$B$92)</f>
+        <v>220</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ref="C99:P99" si="2">MIN(C$96,$B$92)</f>
+        <v>230</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="2"/>
+        <v>241.37</v>
+      </c>
+      <c r="P99">
+        <f>MIN(P$96,$B$92)</f>
+        <v>241.37</v>
+      </c>
+      <c r="Q99">
+        <f>MIN(Q$96,$B$92)</f>
+        <v>241.37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100">
+        <f>MIN(B$96,$B$93)</f>
+        <v>220</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ref="C100:Q100" si="3">MIN(C$96,$B$93)</f>
+        <v>230</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>232.65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101">
+        <f>MIN(B$96,$B$94)</f>
+        <v>220</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101:Q101" si="4">MIN(C$96,$B$94)</f>
+        <v>230</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="4"/>
+        <v>259.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="5">
+        <v>220</v>
+      </c>
+      <c r="C103" s="5">
+        <v>230</v>
+      </c>
+      <c r="D103" s="5">
+        <v>240</v>
+      </c>
+      <c r="E103" s="5">
+        <v>250</v>
+      </c>
+      <c r="F103" s="5">
+        <v>260</v>
+      </c>
+      <c r="G103" s="5">
+        <v>270</v>
+      </c>
+      <c r="H103" s="5">
+        <v>280</v>
+      </c>
+      <c r="I103" s="5">
+        <v>290</v>
+      </c>
+      <c r="J103" s="5">
+        <v>300</v>
+      </c>
+      <c r="K103" s="5">
+        <v>310</v>
+      </c>
+      <c r="L103" s="5">
+        <v>320</v>
+      </c>
+      <c r="M103" s="5">
+        <v>330</v>
+      </c>
+      <c r="N103" s="5">
+        <v>340</v>
+      </c>
+      <c r="O103" s="5">
+        <v>350</v>
+      </c>
+      <c r="P103" s="5">
+        <v>360</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104">
+        <f>B97*$C$90</f>
+        <v>63.887999999999998</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ref="C104:Q104" si="5">C97*$C$90</f>
+        <v>66.792000000000002</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>69.695999999999998</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>75.503999999999991</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>78.408000000000001</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>81.311999999999998</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="5"/>
+        <v>84.215999999999994</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="5"/>
+        <v>87.12</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="5"/>
+        <v>90.024000000000001</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="5"/>
+        <v>92.927999999999997</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="5"/>
+        <v>95.831999999999994</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="5"/>
+        <v>98.73599999999999</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="5"/>
+        <v>101.64</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="5"/>
+        <v>102.633168</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="5"/>
+        <v>102.633168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105">
+        <f>B98*$C$91</f>
+        <v>70.84</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ref="C105:Q105" si="6">C98*$C$91</f>
+        <v>74.06</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="6"/>
+        <v>77.28</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>80.5</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="6"/>
+        <v>81.153660000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106">
+        <f>B99*$C$92</f>
+        <v>71.852000000000004</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:P106" si="7">C99*$C$92</f>
+        <v>75.117999999999995</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="7"/>
+        <v>78.384</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="7"/>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="P106">
+        <f>P99*$C$92</f>
+        <v>78.831441999999996</v>
+      </c>
+      <c r="Q106">
+        <f>Q99*$C$92</f>
+        <v>78.831441999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107">
+        <f>B100*$C$93</f>
+        <v>72.27000000000001</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:Q107" si="8">C100*$C$93</f>
+        <v>75.555000000000007</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="8"/>
+        <v>76.425525000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108">
+        <f>B101*$C$94</f>
+        <v>71.61</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108:Q108" si="9">C101*$C$94</f>
+        <v>74.865000000000009</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="9"/>
+        <v>78.12</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="9"/>
+        <v>81.375</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="9"/>
+        <v>84.503055000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>2</v>
+      </c>
+      <c r="M127" t="s">
+        <v>3</v>
+      </c>
+      <c r="N127" t="s">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="C128">
+        <v>258.3</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>254.2</v>
+      </c>
+      <c r="F128">
+        <v>255.8</v>
+      </c>
+      <c r="G128">
+        <v>248.94800000000001</v>
+      </c>
+      <c r="I128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128">
+        <v>12.6754</v>
+      </c>
+      <c r="K128">
+        <v>11.963800000000001</v>
+      </c>
+      <c r="L128">
+        <v>11.425000000000001</v>
+      </c>
+      <c r="M128">
+        <v>10.660500000000001</v>
+      </c>
+      <c r="N128">
+        <v>10.4094</v>
+      </c>
+      <c r="O128">
+        <v>9.8396000000000008</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>238.3</v>
+      </c>
+      <c r="C129">
+        <v>235.7</v>
+      </c>
+      <c r="D129">
+        <v>228.4</v>
+      </c>
+      <c r="E129">
+        <v>219.6</v>
+      </c>
+      <c r="F129">
+        <v>217.9</v>
+      </c>
+      <c r="G129">
+        <v>197.11199999999999</v>
+      </c>
+      <c r="I129" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129">
+        <v>12.158200000000001</v>
+      </c>
+      <c r="K129">
+        <v>11.3308</v>
+      </c>
+      <c r="L129">
+        <v>10.7309</v>
+      </c>
+      <c r="M129">
+        <v>10.3986</v>
+      </c>
+      <c r="N129">
+        <v>10.1152</v>
+      </c>
+      <c r="O129">
+        <v>9.8455999999999992</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>252</v>
+      </c>
+      <c r="C130">
+        <v>243.5</v>
+      </c>
+      <c r="D130">
+        <v>234.9</v>
+      </c>
+      <c r="E130">
+        <v>229.7</v>
+      </c>
+      <c r="F130">
+        <v>217.2</v>
+      </c>
+      <c r="G130">
+        <v>200.99199999999999</v>
+      </c>
+      <c r="I130" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <v>19.036799999999999</v>
+      </c>
+      <c r="K130">
+        <v>16.407299999999999</v>
+      </c>
+      <c r="L130">
+        <v>16.189900000000002</v>
+      </c>
+      <c r="M130">
+        <v>15.980600000000001</v>
+      </c>
+      <c r="N130">
+        <v>15.837</v>
+      </c>
+      <c r="O130">
+        <v>15.635199999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>262.48200000000003</v>
+      </c>
+      <c r="C131">
+        <v>235.84200000000001</v>
+      </c>
+      <c r="D131">
+        <v>227.55</v>
+      </c>
+      <c r="E131">
+        <v>213.74</v>
+      </c>
+      <c r="F131">
+        <v>206.97200000000001</v>
+      </c>
+      <c r="G131">
+        <v>165.018</v>
+      </c>
+      <c r="I131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131">
+        <v>17.368500000000001</v>
+      </c>
+      <c r="K131">
+        <v>15.7182</v>
+      </c>
+      <c r="L131">
+        <v>13.776199999999999</v>
+      </c>
+      <c r="M131">
+        <v>13.1859</v>
+      </c>
+      <c r="N131">
+        <v>12.6266</v>
+      </c>
+      <c r="O131">
+        <v>12.232200000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="G132">
+        <v>221.874</v>
+      </c>
+      <c r="I132" t="s">
+        <v>33</v>
+      </c>
+      <c r="O132">
+        <v>10.149900000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133">
+        <v>270</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="O133">
+        <v>10.154400000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134">
+        <v>223.66399999999999</v>
+      </c>
+      <c r="I134" t="s">
+        <v>34</v>
+      </c>
+      <c r="O134">
+        <v>4.2553999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135">
+        <v>270</v>
+      </c>
+      <c r="I135" t="s">
+        <v>20</v>
+      </c>
+      <c r="O135">
+        <v>4.2526999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="C138">
+        <v>12.6754</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139">
+        <v>258.3</v>
+      </c>
+      <c r="C139">
+        <v>11.963800000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140">
+        <v>255</v>
+      </c>
+      <c r="C140">
+        <v>11.425000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141">
+        <v>254.2</v>
+      </c>
+      <c r="C141">
+        <v>10.660500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142">
+        <v>255.8</v>
+      </c>
+      <c r="C142">
+        <v>10.4094</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143">
+        <v>248.94800000000001</v>
+      </c>
+      <c r="C143">
+        <v>9.8396000000000008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144">
+        <v>238.3</v>
+      </c>
+      <c r="C144">
+        <v>12.158200000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145">
+        <v>235.7</v>
+      </c>
+      <c r="C145">
+        <v>11.3308</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146">
+        <v>228.4</v>
+      </c>
+      <c r="C146">
+        <v>10.7309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147">
+        <v>219.6</v>
+      </c>
+      <c r="C147">
+        <v>10.3986</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>90</v>
+      </c>
+      <c r="B148">
+        <v>217.9</v>
+      </c>
+      <c r="C148">
+        <v>10.1152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149">
+        <v>197.11199999999999</v>
+      </c>
+      <c r="C149">
+        <v>9.8455999999999992</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>92</v>
+      </c>
+      <c r="B150">
+        <v>252</v>
+      </c>
+      <c r="C150">
+        <v>19.036799999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>93</v>
+      </c>
+      <c r="B151">
+        <v>243.5</v>
+      </c>
+      <c r="C151">
+        <v>16.407299999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152">
+        <v>234.9</v>
+      </c>
+      <c r="C152">
+        <v>16.189900000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153">
+        <v>229.7</v>
+      </c>
+      <c r="C153">
+        <v>15.980600000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>96</v>
+      </c>
+      <c r="B154">
+        <v>217.2</v>
+      </c>
+      <c r="C154">
+        <v>15.837</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>97</v>
+      </c>
+      <c r="B155">
+        <v>200.99199999999999</v>
+      </c>
+      <c r="C155">
+        <v>15.635199999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B156">
+        <v>262.48200000000003</v>
+      </c>
+      <c r="C156">
+        <v>17.368500000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>99</v>
+      </c>
+      <c r="B157">
+        <v>235.84200000000001</v>
+      </c>
+      <c r="C157">
+        <v>15.7182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>100</v>
+      </c>
+      <c r="B158">
+        <v>227.55</v>
+      </c>
+      <c r="C158">
+        <v>13.776199999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159">
+        <v>213.74</v>
+      </c>
+      <c r="C159">
+        <v>13.1859</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>102</v>
+      </c>
+      <c r="B160">
+        <v>206.97200000000001</v>
+      </c>
+      <c r="C160">
+        <v>12.6266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>103</v>
+      </c>
+      <c r="B161">
+        <v>165.018</v>
+      </c>
+      <c r="C161">
+        <v>12.232200000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162">
+        <v>221.874</v>
+      </c>
+      <c r="C162">
+        <v>10.149900000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163">
+        <v>270</v>
+      </c>
+      <c r="C163">
+        <v>10.154400000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164">
+        <v>223.66399999999999</v>
+      </c>
+      <c r="C164">
+        <v>4.2553999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165">
+        <v>270</v>
+      </c>
+      <c r="C165">
+        <v>4.2526999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/eval.xlsx
+++ b/Figures/eval.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-795" yWindow="615" windowWidth="19995" windowHeight="11520" activeTab="5"/>
+    <workbookView xWindow="-795" yWindow="615" windowWidth="19995" windowHeight="11520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="1" r:id="rId1"/>
@@ -522,11 +522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98712576"/>
-        <c:axId val="98734848"/>
+        <c:axId val="82135680"/>
+        <c:axId val="82153856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98712576"/>
+        <c:axId val="82135680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98734848"/>
+        <c:crossAx val="82153856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98734848"/>
+        <c:axId val="82153856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98712576"/>
+        <c:crossAx val="82135680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000013E-3"/>
@@ -726,11 +726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104686336"/>
-        <c:axId val="104687872"/>
+        <c:axId val="85029248"/>
+        <c:axId val="85030784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104686336"/>
+        <c:axId val="85029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104687872"/>
+        <c:crossAx val="85030784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104687872"/>
+        <c:axId val="85030784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -806,7 +806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104686336"/>
+        <c:crossAx val="85029248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -1378,11 +1378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="104856576"/>
-        <c:axId val="104407808"/>
+        <c:axId val="84810368"/>
+        <c:axId val="84820352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104856576"/>
+        <c:axId val="84810368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104407808"/>
+        <c:crossAx val="84820352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1412,7 +1412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104407808"/>
+        <c:axId val="84820352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1441,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1461,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104856576"/>
+        <c:crossAx val="84810368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,8 +1684,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104801408"/>
-        <c:axId val="104802944"/>
+        <c:axId val="85140224"/>
+        <c:axId val="85141760"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1830,11 +1829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104471168"/>
-        <c:axId val="104469248"/>
+        <c:axId val="84879616"/>
+        <c:axId val="84877696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104801408"/>
+        <c:axId val="85140224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104802944"/>
+        <c:crossAx val="85141760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104802944"/>
+        <c:axId val="85141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +1916,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104801408"/>
+        <c:crossAx val="85140224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104469248"/>
+        <c:axId val="84877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.33200000000000013"/>
@@ -1949,7 +1948,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1969,13 +1967,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104471168"/>
+        <c:crossAx val="84879616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="104471168"/>
+        <c:axId val="84879616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104469248"/>
+        <c:crossAx val="84877696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,11 +2150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104506112"/>
-        <c:axId val="104507648"/>
+        <c:axId val="84910464"/>
+        <c:axId val="84912000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104506112"/>
+        <c:axId val="84910464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104507648"/>
+        <c:crossAx val="84912000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104507648"/>
+        <c:axId val="84912000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104506112"/>
+        <c:crossAx val="84910464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2397,11 +2395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104868480"/>
-        <c:axId val="104870656"/>
+        <c:axId val="85481728"/>
+        <c:axId val="85483904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104868480"/>
+        <c:axId val="85481728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2449,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104870656"/>
+        <c:crossAx val="85483904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104870656"/>
+        <c:axId val="85483904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2506,7 +2502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104868480"/>
+        <c:crossAx val="85481728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,11 +2644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104899712"/>
-        <c:axId val="104901248"/>
+        <c:axId val="85521152"/>
+        <c:axId val="85522688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104899712"/>
+        <c:axId val="85521152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104901248"/>
+        <c:crossAx val="85522688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2682,7 +2678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104901248"/>
+        <c:axId val="85522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2704,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2728,7 +2723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104899712"/>
+        <c:crossAx val="85521152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2772,9 +2767,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14320626715553689"/>
+          <c:x val="0.20255490713984045"/>
           <c:y val="4.7415605731785875E-2"/>
-          <c:w val="0.83440187533810184"/>
+          <c:w val="0.77505333504658469"/>
           <c:h val="0.80109669738514355"/>
         </c:manualLayout>
       </c:layout>
@@ -2859,11 +2854,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104922496"/>
-        <c:axId val="105796736"/>
+        <c:axId val="85601280"/>
+        <c:axId val="85623552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104922496"/>
+        <c:axId val="85601280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,7 +2880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105796736"/>
+        <c:crossAx val="85623552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,13 +2888,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105796736"/>
+        <c:axId val="85623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Target Misprediction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Improvement over Base</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2917,7 +2948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104922496"/>
+        <c:crossAx val="85601280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,11 +3107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105841792"/>
-        <c:axId val="105843328"/>
+        <c:axId val="85652224"/>
+        <c:axId val="85653760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105841792"/>
+        <c:axId val="85652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +3133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105843328"/>
+        <c:crossAx val="85653760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3110,7 +3141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105843328"/>
+        <c:axId val="85653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105841792"/>
+        <c:crossAx val="85652224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,8 +3422,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105879808"/>
-        <c:axId val="105889792"/>
+        <c:axId val="85706624"/>
+        <c:axId val="85708160"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3598,11 +3629,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105906176"/>
-        <c:axId val="105891712"/>
+        <c:axId val="85716352"/>
+        <c:axId val="85714432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105879808"/>
+        <c:axId val="85706624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3624,7 +3655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105889792"/>
+        <c:crossAx val="85708160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3632,7 +3663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105889792"/>
+        <c:axId val="85708160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -3680,12 +3711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105879808"/>
+        <c:crossAx val="85706624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105891712"/>
+        <c:axId val="85714432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3742,12 +3773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105906176"/>
+        <c:crossAx val="85716352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="105906176"/>
+        <c:axId val="85716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +3787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105891712"/>
+        <c:crossAx val="85714432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3923,11 +3954,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105949056"/>
-        <c:axId val="105950592"/>
+        <c:axId val="85763584"/>
+        <c:axId val="85765120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105949056"/>
+        <c:axId val="85763584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105950592"/>
+        <c:crossAx val="85765120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3957,7 +3988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105950592"/>
+        <c:axId val="85765120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -4004,7 +4035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105949056"/>
+        <c:crossAx val="85763584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4156,11 +4187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102306176"/>
-        <c:axId val="102307712"/>
+        <c:axId val="84021248"/>
+        <c:axId val="84022784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102306176"/>
+        <c:axId val="84021248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102307712"/>
+        <c:crossAx val="84022784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4190,7 +4221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102307712"/>
+        <c:axId val="84022784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -4244,7 +4275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102306176"/>
+        <c:crossAx val="84021248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0000000000000004E-2"/>
@@ -4357,11 +4388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105963520"/>
-        <c:axId val="105965056"/>
+        <c:axId val="85777792"/>
+        <c:axId val="85779584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105963520"/>
+        <c:axId val="85777792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,7 +4414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105965056"/>
+        <c:crossAx val="85779584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4391,7 +4422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105965056"/>
+        <c:axId val="85779584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000001"/>
@@ -4416,7 +4447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105963520"/>
+        <c:crossAx val="85777792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4686,11 +4717,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105450112"/>
-        <c:axId val="105460096"/>
+        <c:axId val="85858560"/>
+        <c:axId val="85872640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105450112"/>
+        <c:axId val="85858560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105460096"/>
+        <c:crossAx val="85872640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4720,7 +4751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105460096"/>
+        <c:axId val="85872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,7 +4777,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4766,7 +4796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105450112"/>
+        <c:crossAx val="85858560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5056,11 +5086,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106051456"/>
-        <c:axId val="106052992"/>
+        <c:axId val="85939712"/>
+        <c:axId val="85941248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106051456"/>
+        <c:axId val="85939712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5082,7 +5112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106052992"/>
+        <c:crossAx val="85941248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5090,7 +5120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106052992"/>
+        <c:axId val="85941248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5116,7 +5146,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5136,7 +5165,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106051456"/>
+        <c:crossAx val="85939712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5433,11 +5462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98441472"/>
-        <c:axId val="98459648"/>
+        <c:axId val="81934208"/>
+        <c:axId val="81935744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98441472"/>
+        <c:axId val="81934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5459,7 +5488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98459648"/>
+        <c:crossAx val="81935744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5467,7 +5496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98459648"/>
+        <c:axId val="81935744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5494,7 +5523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5514,7 +5542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98441472"/>
+        <c:crossAx val="81934208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5720,8 +5748,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98492800"/>
-        <c:axId val="98494336"/>
+        <c:axId val="85225472"/>
+        <c:axId val="85227008"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -5862,11 +5890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104440960"/>
-        <c:axId val="98495872"/>
+        <c:axId val="85230336"/>
+        <c:axId val="85228544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98492800"/>
+        <c:axId val="85225472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,7 +5903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98494336"/>
+        <c:crossAx val="85227008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5883,7 +5911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98494336"/>
+        <c:axId val="85227008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,12 +5922,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98492800"/>
+        <c:crossAx val="85225472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98495872"/>
+        <c:axId val="85228544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,12 +5937,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104440960"/>
+        <c:crossAx val="85230336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="104440960"/>
+        <c:axId val="85230336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5923,7 +5951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98495872"/>
+        <c:crossAx val="85228544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5941,7 +5969,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6032,11 +6059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106046976"/>
-        <c:axId val="106048512"/>
+        <c:axId val="81986688"/>
+        <c:axId val="81988224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106046976"/>
+        <c:axId val="81986688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6045,7 +6072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106048512"/>
+        <c:crossAx val="81988224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6053,7 +6080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106048512"/>
+        <c:axId val="81988224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6065,7 +6092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106046976"/>
+        <c:crossAx val="81986688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6226,11 +6253,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="98587008"/>
-        <c:axId val="98588544"/>
+        <c:axId val="82022400"/>
+        <c:axId val="82023936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98587008"/>
+        <c:axId val="82022400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6249,7 +6276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98588544"/>
+        <c:crossAx val="82023936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6258,7 +6285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98588544"/>
+        <c:axId val="82023936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6279,14 +6306,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98587008"/>
+        <c:crossAx val="82022400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6996,11 +7022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45985152"/>
-        <c:axId val="46030848"/>
+        <c:axId val="85348736"/>
+        <c:axId val="85350272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45985152"/>
+        <c:axId val="85348736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7010,7 +7036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46030848"/>
+        <c:crossAx val="85350272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7018,7 +7044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46030848"/>
+        <c:axId val="85350272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -7030,14 +7056,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45985152"/>
+        <c:crossAx val="85348736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7276,11 +7301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50086656"/>
-        <c:axId val="49813376"/>
+        <c:axId val="85378560"/>
+        <c:axId val="85380096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50086656"/>
+        <c:axId val="85378560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150"/>
@@ -7291,12 +7316,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49813376"/>
+        <c:crossAx val="85380096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49813376"/>
+        <c:axId val="85380096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7307,7 +7332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50086656"/>
+        <c:crossAx val="85378560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7421,11 +7446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102315520"/>
-        <c:axId val="102317056"/>
+        <c:axId val="84055168"/>
+        <c:axId val="84056704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102315520"/>
+        <c:axId val="84055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,7 +7472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102317056"/>
+        <c:crossAx val="84056704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7455,7 +7480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102317056"/>
+        <c:axId val="84056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,7 +7525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102315520"/>
+        <c:crossAx val="84055168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0000000000000018E-3"/>
@@ -7649,11 +7674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102361728"/>
-        <c:axId val="102363520"/>
+        <c:axId val="83953920"/>
+        <c:axId val="83959808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102361728"/>
+        <c:axId val="83953920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,7 +7700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102363520"/>
+        <c:crossAx val="83959808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7683,7 +7708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102363520"/>
+        <c:axId val="83959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7728,7 +7753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102361728"/>
+        <c:crossAx val="83953920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -8299,11 +8324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="58"/>
-        <c:axId val="102414208"/>
-        <c:axId val="102415744"/>
+        <c:axId val="84606976"/>
+        <c:axId val="84608512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102414208"/>
+        <c:axId val="84606976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8325,7 +8350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102415744"/>
+        <c:crossAx val="84608512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8333,7 +8358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102415744"/>
+        <c:axId val="84608512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.32200000000000012"/>
@@ -8379,7 +8404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102414208"/>
+        <c:crossAx val="84606976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000009E-3"/>
@@ -8978,11 +9003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="102481280"/>
-        <c:axId val="102483072"/>
+        <c:axId val="84661376"/>
+        <c:axId val="84662912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102481280"/>
+        <c:axId val="84661376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8991,7 +9016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102483072"/>
+        <c:crossAx val="84662912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8999,7 +9024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102483072"/>
+        <c:axId val="84662912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="280"/>
@@ -9024,14 +9049,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102481280"/>
+        <c:crossAx val="84661376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9210,11 +9234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102901632"/>
-        <c:axId val="102903168"/>
+        <c:axId val="84487552"/>
+        <c:axId val="84509824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102901632"/>
+        <c:axId val="84487552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9233,7 +9257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102903168"/>
+        <c:crossAx val="84509824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9241,7 +9265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102903168"/>
+        <c:axId val="84509824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -9265,7 +9289,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9282,7 +9305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102901632"/>
+        <c:crossAx val="84487552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9539,11 +9562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102948864"/>
-        <c:axId val="102951168"/>
+        <c:axId val="84936192"/>
+        <c:axId val="84938752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102948864"/>
+        <c:axId val="84936192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9568,7 +9591,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9588,7 +9610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102951168"/>
+        <c:crossAx val="84938752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9596,7 +9618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102951168"/>
+        <c:axId val="84938752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -9623,7 +9645,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9643,14 +9664,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102948864"/>
+        <c:crossAx val="84936192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -10189,11 +10209,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="48"/>
-        <c:axId val="104655104"/>
-        <c:axId val="104665088"/>
+        <c:axId val="85000192"/>
+        <c:axId val="85001728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104655104"/>
+        <c:axId val="85000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10212,7 +10232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104665088"/>
+        <c:crossAx val="85001728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10220,7 +10240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104665088"/>
+        <c:axId val="85001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -10256,7 +10276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104655104"/>
+        <c:crossAx val="85000192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11236,10 +11256,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16330,8 +16350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F21:F46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U65" sqref="U65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16653,7 +16673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
@@ -17384,63 +17404,63 @@
         <v>220</v>
       </c>
       <c r="C97">
-        <f>MIN(C96,$B$90)</f>
+        <f t="shared" ref="C97:Q97" si="2">MIN(C96,$B$90)</f>
         <v>230</v>
       </c>
       <c r="D97">
-        <f>MIN(D96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="E97">
-        <f>MIN(E96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="F97">
-        <f>MIN(F96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="G97">
-        <f>MIN(G96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="H97">
-        <f>MIN(H96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="I97">
-        <f>MIN(I96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
       <c r="J97">
-        <f>MIN(J96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="K97">
-        <f>MIN(K96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>310</v>
       </c>
       <c r="L97">
-        <f>MIN(L96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="M97">
-        <f>MIN(M96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="N97">
-        <f>MIN(N96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="O97">
-        <f>MIN(O96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="P97">
-        <f>MIN(P96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>353.42</v>
       </c>
       <c r="Q97">
-        <f>MIN(Q96,$B$90)</f>
+        <f t="shared" si="2"/>
         <v>353.42</v>
       </c>
     </row>
@@ -17453,63 +17473,63 @@
         <v>220</v>
       </c>
       <c r="C98">
-        <f>MIN(C96,$B$91)</f>
+        <f t="shared" ref="C98:Q98" si="3">MIN(C96,$B$91)</f>
         <v>230</v>
       </c>
       <c r="D98">
-        <f>MIN(D96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E98">
-        <f>MIN(E96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="F98">
-        <f>MIN(F96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="G98">
-        <f>MIN(G96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="H98">
-        <f>MIN(H96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="I98">
-        <f>MIN(I96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="J98">
-        <f>MIN(J96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="K98">
-        <f>MIN(K96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="L98">
-        <f>MIN(L96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="M98">
-        <f>MIN(M96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="N98">
-        <f>MIN(N96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="O98">
-        <f>MIN(O96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="P98">
-        <f>MIN(P96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
       <c r="Q98">
-        <f>MIN(Q96,$B$91)</f>
+        <f t="shared" si="3"/>
         <v>252.03</v>
       </c>
     </row>
@@ -17522,55 +17542,55 @@
         <v>220</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:P99" si="2">MIN(C$96,$B$92)</f>
+        <f t="shared" ref="C99:O99" si="4">MIN(C$96,$B$92)</f>
         <v>230</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="H99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="J99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="K99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="L99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="M99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="N99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="O99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>241.37</v>
       </c>
       <c r="P99">
@@ -17591,63 +17611,63 @@
         <v>220</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:Q100" si="3">MIN(C$96,$B$93)</f>
+        <f t="shared" ref="C100:Q100" si="5">MIN(C$96,$B$93)</f>
         <v>230</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="H100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="J100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="K100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="L100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="M100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="O100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="P100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232.65</v>
       </c>
     </row>
@@ -17660,63 +17680,63 @@
         <v>220</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:Q101" si="4">MIN(C$96,$B$94)</f>
+        <f t="shared" ref="C101:Q101" si="6">MIN(C$96,$B$94)</f>
         <v>230</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="G101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="I101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="L101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="M101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="N101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="O101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="P101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.61</v>
       </c>
     </row>
@@ -17779,63 +17799,63 @@
         <v>63.887999999999998</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:Q104" si="5">C97*$C$90</f>
+        <f t="shared" ref="C104:Q104" si="7">C97*$C$90</f>
         <v>66.792000000000002</v>
       </c>
       <c r="D104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69.695999999999998</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72.599999999999994</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75.503999999999991</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>78.408000000000001</v>
       </c>
       <c r="H104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>81.311999999999998</v>
       </c>
       <c r="I104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>84.215999999999994</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87.12</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90.024000000000001</v>
       </c>
       <c r="L104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92.927999999999997</v>
       </c>
       <c r="M104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95.831999999999994</v>
       </c>
       <c r="N104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>98.73599999999999</v>
       </c>
       <c r="O104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>101.64</v>
       </c>
       <c r="P104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102.633168</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102.633168</v>
       </c>
     </row>
@@ -17848,63 +17868,63 @@
         <v>70.84</v>
       </c>
       <c r="C105">
-        <f t="shared" ref="C105:Q105" si="6">C98*$C$91</f>
+        <f t="shared" ref="C105:Q105" si="8">C98*$C$91</f>
         <v>74.06</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>77.28</v>
       </c>
       <c r="E105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80.5</v>
       </c>
       <c r="F105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="H105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="I105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="J105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="K105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="L105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="M105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="N105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="O105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="P105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.153660000000002</v>
       </c>
     </row>
@@ -17917,55 +17937,55 @@
         <v>71.852000000000004</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106:P106" si="7">C99*$C$92</f>
+        <f t="shared" ref="C106:O106" si="9">C99*$C$92</f>
         <v>75.117999999999995</v>
       </c>
       <c r="D106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.384</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="F106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="G106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="H106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="I106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="J106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="K106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="L106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="M106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="O106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78.831441999999996</v>
       </c>
       <c r="P106">
@@ -17986,63 +18006,63 @@
         <v>72.27000000000001</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:Q107" si="8">C100*$C$93</f>
+        <f t="shared" ref="C107:Q107" si="10">C100*$C$93</f>
         <v>75.555000000000007</v>
       </c>
       <c r="D107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="E107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="F107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="G107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="H107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="I107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="J107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="K107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="L107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="M107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="N107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="O107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="P107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76.425525000000007</v>
       </c>
     </row>
@@ -18055,63 +18075,63 @@
         <v>71.61</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108:Q108" si="9">C101*$C$94</f>
+        <f t="shared" ref="C108:Q108" si="11">C101*$C$94</f>
         <v>74.865000000000009</v>
       </c>
       <c r="D108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>78.12</v>
       </c>
       <c r="E108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>81.375</v>
       </c>
       <c r="F108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="G108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="H108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="I108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="J108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="K108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="L108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="M108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="N108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="O108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="P108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84.503055000000003</v>
       </c>
     </row>
